--- a/task/GL31スケジュール.xlsx
+++ b/task/GL31スケジュール.xlsx
@@ -1034,22 +1034,196 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="55" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1057,180 +1231,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="55" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1774,7 +1774,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M8" sqref="M8"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1790,10 +1790,10 @@
     <row r="1" spans="1:137" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="AF1" s="84" t="s">
+      <c r="AF1" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="CG1" s="78" t="s">
+      <c r="CG1" s="79" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1801,74 +1801,74 @@
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
       <c r="W2" s="8"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="109"/>
-      <c r="AF2" s="84"/>
-      <c r="CG2" s="78"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="98"/>
+      <c r="AF2" s="78"/>
+      <c r="CG2" s="79"/>
     </row>
     <row r="3" spans="1:137" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="107"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="110"/>
-      <c r="AA3" s="110"/>
-      <c r="AB3" s="110"/>
-      <c r="AC3" s="110"/>
-      <c r="AF3" s="84"/>
-      <c r="CG3" s="78"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AF3" s="78"/>
+      <c r="CG3" s="79"/>
     </row>
     <row r="4" spans="1:137" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="75"/>
+      <c r="A4" s="88"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -1896,12 +1896,12 @@
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
-      <c r="AF4" s="84"/>
-      <c r="CG4" s="78"/>
+      <c r="AF4" s="78"/>
+      <c r="CG4" s="79"/>
     </row>
     <row r="5" spans="1:137" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="75"/>
-      <c r="B5" s="108"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -1929,12 +1929,12 @@
       <c r="AA5" s="8"/>
       <c r="AB5" s="8"/>
       <c r="AC5" s="8"/>
-      <c r="AF5" s="84"/>
-      <c r="CG5" s="78"/>
+      <c r="AF5" s="78"/>
+      <c r="CG5" s="79"/>
     </row>
     <row r="6" spans="1:137" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="75"/>
-      <c r="B6" s="108"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -1962,12 +1962,12 @@
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
-      <c r="AF6" s="84"/>
-      <c r="CG6" s="78"/>
+      <c r="AF6" s="78"/>
+      <c r="CG6" s="79"/>
     </row>
     <row r="7" spans="1:137" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="75"/>
-      <c r="B7" s="108"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -1995,12 +1995,12 @@
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
-      <c r="AF7" s="84"/>
-      <c r="CG7" s="78"/>
+      <c r="AF7" s="78"/>
+      <c r="CG7" s="79"/>
     </row>
     <row r="8" spans="1:137" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="75"/>
-      <c r="B8" s="108"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -2028,27 +2028,27 @@
       <c r="AA8" s="8"/>
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
-      <c r="AF8" s="84"/>
-      <c r="CG8" s="78"/>
+      <c r="AF8" s="78"/>
+      <c r="CG8" s="79"/>
     </row>
     <row r="9" spans="1:137" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="75"/>
-      <c r="B9" s="108"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="110"/>
+      <c r="Q9" s="50"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
@@ -2061,61 +2061,61 @@
       <c r="AA9" s="8"/>
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
-      <c r="AF9" s="84"/>
-      <c r="CG9" s="78"/>
-      <c r="DP9" s="84"/>
-      <c r="DW9" s="89"/>
+      <c r="AF9" s="78"/>
+      <c r="CG9" s="79"/>
+      <c r="DP9" s="78"/>
+      <c r="DW9" s="68"/>
     </row>
     <row r="10" spans="1:137" s="2" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="76"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="15"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
-      <c r="AF10" s="84"/>
-      <c r="AJ10" s="78"/>
-      <c r="CG10" s="78"/>
-      <c r="CN10" s="84"/>
-      <c r="DG10" s="78"/>
-      <c r="DP10" s="95"/>
-      <c r="DW10" s="89"/>
+      <c r="AF10" s="78"/>
+      <c r="AJ10" s="79"/>
+      <c r="CG10" s="79"/>
+      <c r="CN10" s="78"/>
+      <c r="DG10" s="79"/>
+      <c r="DP10" s="76"/>
+      <c r="DW10" s="68"/>
     </row>
     <row r="11" spans="1:137" s="2" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="111"/>
-      <c r="AC11" s="78"/>
-      <c r="AF11" s="84"/>
-      <c r="AJ11" s="78"/>
-      <c r="CD11" s="80"/>
-      <c r="CE11" s="94"/>
-      <c r="CG11" s="78"/>
-      <c r="CN11" s="95"/>
-      <c r="DG11" s="97"/>
-      <c r="DP11" s="95"/>
-      <c r="DW11" s="89"/>
+      <c r="O11" s="51"/>
+      <c r="AC11" s="79"/>
+      <c r="AF11" s="78"/>
+      <c r="AJ11" s="79"/>
+      <c r="CD11" s="73"/>
+      <c r="CE11" s="75"/>
+      <c r="CG11" s="79"/>
+      <c r="CN11" s="76"/>
+      <c r="DG11" s="80"/>
+      <c r="DP11" s="76"/>
+      <c r="DW11" s="68"/>
     </row>
     <row r="12" spans="1:137" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
@@ -2125,18 +2125,18 @@
         <f ca="1">TODAY()</f>
         <v>42681</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="72" t="s">
+      <c r="C12" s="46"/>
+      <c r="D12" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="73"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="91"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="8"/>
@@ -2153,14 +2153,14 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
-      <c r="AC12" s="78"/>
+      <c r="AC12" s="79"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
-      <c r="AF12" s="84"/>
+      <c r="AF12" s="78"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
-      <c r="AJ12" s="78"/>
+      <c r="AJ12" s="79"/>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
@@ -2174,8 +2174,8 @@
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="10"/>
-      <c r="AX12" s="85"/>
-      <c r="AY12" s="91"/>
+      <c r="AX12" s="67"/>
+      <c r="AY12" s="70"/>
       <c r="AZ12" s="2"/>
       <c r="BA12" s="2"/>
       <c r="BB12" s="2"/>
@@ -2199,31 +2199,31 @@
       <c r="BT12" s="2"/>
       <c r="BU12" s="2"/>
       <c r="BV12" s="2"/>
-      <c r="BW12" s="91"/>
+      <c r="BW12" s="70"/>
       <c r="BX12" s="2"/>
       <c r="BY12" s="2"/>
       <c r="BZ12" s="2"/>
       <c r="CA12" s="2"/>
       <c r="CB12" s="2"/>
       <c r="CC12" s="2"/>
-      <c r="CD12" s="80"/>
-      <c r="CE12" s="95"/>
+      <c r="CD12" s="73"/>
+      <c r="CE12" s="76"/>
       <c r="CF12" s="2"/>
-      <c r="CG12" s="78"/>
+      <c r="CG12" s="79"/>
       <c r="CH12" s="2"/>
       <c r="CI12" s="2"/>
       <c r="CJ12" s="2"/>
       <c r="CK12" s="2"/>
       <c r="CL12" s="2"/>
       <c r="CM12" s="2"/>
-      <c r="CN12" s="95"/>
+      <c r="CN12" s="76"/>
       <c r="CO12" s="2"/>
       <c r="CP12" s="2"/>
       <c r="CQ12" s="2"/>
       <c r="CR12" s="2"/>
       <c r="CS12" s="2"/>
       <c r="CT12" s="2"/>
-      <c r="CU12" s="89"/>
+      <c r="CU12" s="68"/>
       <c r="CV12" s="2"/>
       <c r="CW12" s="9"/>
       <c r="CX12" s="2"/>
@@ -2235,7 +2235,7 @@
       <c r="DD12" s="2"/>
       <c r="DE12" s="2"/>
       <c r="DF12" s="2"/>
-      <c r="DG12" s="97"/>
+      <c r="DG12" s="80"/>
       <c r="DH12" s="2"/>
       <c r="DI12" s="2"/>
       <c r="DJ12" s="2"/>
@@ -2244,14 +2244,14 @@
       <c r="DM12" s="2"/>
       <c r="DN12" s="9"/>
       <c r="DO12" s="2"/>
-      <c r="DP12" s="95"/>
+      <c r="DP12" s="76"/>
       <c r="DQ12" s="2"/>
       <c r="DR12" s="2"/>
       <c r="DS12" s="2"/>
       <c r="DT12" s="2"/>
       <c r="DU12" s="2"/>
       <c r="DV12" s="2"/>
-      <c r="DW12" s="89"/>
+      <c r="DW12" s="68"/>
       <c r="DX12" s="2"/>
       <c r="DY12" s="2"/>
       <c r="DZ12" s="2"/>
@@ -2264,22 +2264,22 @@
       <c r="EG12" s="2"/>
     </row>
     <row r="13" spans="1:137" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="65"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="16"/>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="73"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="91"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="8"/>
@@ -2296,14 +2296,14 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
-      <c r="AC13" s="78"/>
+      <c r="AC13" s="79"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
-      <c r="AF13" s="84"/>
+      <c r="AF13" s="78"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
-      <c r="AJ13" s="78"/>
+      <c r="AJ13" s="79"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
@@ -2317,8 +2317,8 @@
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
       <c r="AW13" s="10"/>
-      <c r="AX13" s="85"/>
-      <c r="AY13" s="92"/>
+      <c r="AX13" s="67"/>
+      <c r="AY13" s="71"/>
       <c r="AZ13" s="2"/>
       <c r="BA13" s="2"/>
       <c r="BB13" s="2"/>
@@ -2342,31 +2342,31 @@
       <c r="BT13" s="2"/>
       <c r="BU13" s="2"/>
       <c r="BV13" s="2"/>
-      <c r="BW13" s="92"/>
+      <c r="BW13" s="71"/>
       <c r="BX13" s="2"/>
       <c r="BY13" s="2"/>
       <c r="BZ13" s="2"/>
       <c r="CA13" s="2"/>
       <c r="CB13" s="2"/>
       <c r="CC13" s="2"/>
-      <c r="CD13" s="80"/>
-      <c r="CE13" s="95"/>
+      <c r="CD13" s="73"/>
+      <c r="CE13" s="76"/>
       <c r="CF13" s="2"/>
-      <c r="CG13" s="78"/>
+      <c r="CG13" s="79"/>
       <c r="CH13" s="2"/>
       <c r="CI13" s="2"/>
       <c r="CJ13" s="2"/>
       <c r="CK13" s="2"/>
       <c r="CL13" s="2"/>
       <c r="CM13" s="2"/>
-      <c r="CN13" s="95"/>
+      <c r="CN13" s="76"/>
       <c r="CO13" s="2"/>
       <c r="CP13" s="2"/>
       <c r="CQ13" s="2"/>
       <c r="CR13" s="2"/>
       <c r="CS13" s="2"/>
       <c r="CT13" s="2"/>
-      <c r="CU13" s="89"/>
+      <c r="CU13" s="68"/>
       <c r="CV13" s="2"/>
       <c r="CW13" s="2"/>
       <c r="CX13" s="2"/>
@@ -2378,7 +2378,7 @@
       <c r="DD13" s="2"/>
       <c r="DE13" s="2"/>
       <c r="DF13" s="2"/>
-      <c r="DG13" s="97"/>
+      <c r="DG13" s="80"/>
       <c r="DH13" s="2"/>
       <c r="DI13" s="2"/>
       <c r="DJ13" s="2"/>
@@ -2387,14 +2387,14 @@
       <c r="DM13" s="2"/>
       <c r="DN13" s="2"/>
       <c r="DO13" s="2"/>
-      <c r="DP13" s="95"/>
+      <c r="DP13" s="76"/>
       <c r="DQ13" s="2"/>
       <c r="DR13" s="2"/>
       <c r="DS13" s="2"/>
       <c r="DT13" s="2"/>
       <c r="DU13" s="2"/>
       <c r="DV13" s="2"/>
-      <c r="DW13" s="89"/>
+      <c r="DW13" s="68"/>
       <c r="DX13" s="2"/>
       <c r="DY13" s="2"/>
       <c r="DZ13" s="2"/>
@@ -2415,17 +2415,17 @@
         <v>23</v>
       </c>
       <c r="C14" s="17"/>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="83"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="93"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="8"/>
@@ -2442,14 +2442,14 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="78"/>
+      <c r="AC14" s="79"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
-      <c r="AF14" s="84"/>
+      <c r="AF14" s="78"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
-      <c r="AJ14" s="78"/>
+      <c r="AJ14" s="79"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
@@ -2463,8 +2463,8 @@
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="10"/>
-      <c r="AX14" s="85"/>
-      <c r="AY14" s="92"/>
+      <c r="AX14" s="67"/>
+      <c r="AY14" s="71"/>
       <c r="AZ14" s="2"/>
       <c r="BA14" s="2"/>
       <c r="BB14" s="2"/>
@@ -2488,31 +2488,31 @@
       <c r="BT14" s="2"/>
       <c r="BU14" s="2"/>
       <c r="BV14" s="2"/>
-      <c r="BW14" s="92"/>
+      <c r="BW14" s="71"/>
       <c r="BX14" s="2"/>
       <c r="BY14" s="2"/>
       <c r="BZ14" s="2"/>
       <c r="CA14" s="2"/>
       <c r="CB14" s="2"/>
       <c r="CC14" s="2"/>
-      <c r="CD14" s="80"/>
-      <c r="CE14" s="95"/>
+      <c r="CD14" s="73"/>
+      <c r="CE14" s="76"/>
       <c r="CF14" s="2"/>
-      <c r="CG14" s="78"/>
+      <c r="CG14" s="79"/>
       <c r="CH14" s="2"/>
       <c r="CI14" s="2"/>
       <c r="CJ14" s="2"/>
       <c r="CK14" s="2"/>
       <c r="CL14" s="2"/>
       <c r="CM14" s="2"/>
-      <c r="CN14" s="95"/>
+      <c r="CN14" s="76"/>
       <c r="CO14" s="2"/>
       <c r="CP14" s="2"/>
       <c r="CQ14" s="2"/>
       <c r="CR14" s="2"/>
       <c r="CS14" s="2"/>
       <c r="CT14" s="2"/>
-      <c r="CU14" s="89"/>
+      <c r="CU14" s="68"/>
       <c r="CV14" s="2"/>
       <c r="CW14" s="2"/>
       <c r="CX14" s="8"/>
@@ -2524,7 +2524,7 @@
       <c r="DD14" s="2"/>
       <c r="DE14" s="2"/>
       <c r="DF14" s="2"/>
-      <c r="DG14" s="97"/>
+      <c r="DG14" s="80"/>
       <c r="DH14" s="2"/>
       <c r="DI14" s="2"/>
       <c r="DJ14" s="2"/>
@@ -2533,14 +2533,14 @@
       <c r="DM14" s="2"/>
       <c r="DN14" s="2"/>
       <c r="DO14" s="2"/>
-      <c r="DP14" s="95"/>
+      <c r="DP14" s="76"/>
       <c r="DQ14" s="2"/>
       <c r="DR14" s="2"/>
       <c r="DS14" s="8"/>
       <c r="DT14" s="8"/>
       <c r="DU14" s="8"/>
       <c r="DV14" s="8"/>
-      <c r="DW14" s="89"/>
+      <c r="DW14" s="68"/>
       <c r="DX14" s="8"/>
       <c r="DY14" s="8"/>
       <c r="DZ14" s="8"/>
@@ -2553,17 +2553,17 @@
       <c r="EG14" s="2"/>
     </row>
     <row r="15" spans="1:137" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="62"/>
+      <c r="B15" s="86"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="80" t="s">
+      <c r="I15" s="73" t="s">
         <v>8</v>
       </c>
       <c r="J15" s="2"/>
@@ -2585,14 +2585,14 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
-      <c r="AC15" s="78"/>
+      <c r="AC15" s="79"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
-      <c r="AF15" s="84"/>
+      <c r="AF15" s="78"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
-      <c r="AJ15" s="78"/>
+      <c r="AJ15" s="79"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
@@ -2606,8 +2606,8 @@
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="10"/>
-      <c r="AX15" s="85"/>
-      <c r="AY15" s="92"/>
+      <c r="AX15" s="67"/>
+      <c r="AY15" s="71"/>
       <c r="AZ15" s="2"/>
       <c r="BA15" s="2"/>
       <c r="BB15" s="2"/>
@@ -2631,31 +2631,31 @@
       <c r="BT15" s="2"/>
       <c r="BU15" s="2"/>
       <c r="BV15" s="2"/>
-      <c r="BW15" s="92"/>
+      <c r="BW15" s="71"/>
       <c r="BX15" s="2"/>
       <c r="BY15" s="2"/>
       <c r="BZ15" s="2"/>
       <c r="CA15" s="2"/>
       <c r="CB15" s="2"/>
       <c r="CC15" s="9"/>
-      <c r="CD15" s="80"/>
-      <c r="CE15" s="95"/>
+      <c r="CD15" s="73"/>
+      <c r="CE15" s="76"/>
       <c r="CF15" s="2"/>
-      <c r="CG15" s="78"/>
+      <c r="CG15" s="79"/>
       <c r="CH15" s="2"/>
       <c r="CI15" s="2"/>
       <c r="CJ15" s="2"/>
       <c r="CK15" s="2"/>
       <c r="CL15" s="2"/>
       <c r="CM15" s="2"/>
-      <c r="CN15" s="95"/>
+      <c r="CN15" s="76"/>
       <c r="CO15" s="2"/>
       <c r="CP15" s="2"/>
       <c r="CQ15" s="2"/>
       <c r="CR15" s="2"/>
       <c r="CS15" s="2"/>
       <c r="CT15" s="2"/>
-      <c r="CU15" s="89"/>
+      <c r="CU15" s="68"/>
       <c r="CV15" s="2"/>
       <c r="CW15" s="2"/>
       <c r="CX15" s="2"/>
@@ -2667,7 +2667,7 @@
       <c r="DD15" s="2"/>
       <c r="DE15" s="2"/>
       <c r="DF15" s="2"/>
-      <c r="DG15" s="97"/>
+      <c r="DG15" s="80"/>
       <c r="DH15" s="2"/>
       <c r="DI15" s="2"/>
       <c r="DJ15" s="2"/>
@@ -2676,14 +2676,14 @@
       <c r="DM15" s="2"/>
       <c r="DN15" s="2"/>
       <c r="DO15" s="2"/>
-      <c r="DP15" s="95"/>
+      <c r="DP15" s="76"/>
       <c r="DQ15" s="2"/>
       <c r="DR15" s="2"/>
       <c r="DS15" s="8"/>
       <c r="DT15" s="8"/>
       <c r="DU15" s="8"/>
       <c r="DV15" s="8"/>
-      <c r="DW15" s="89"/>
+      <c r="DW15" s="68"/>
       <c r="DX15" s="8"/>
       <c r="DY15" s="8"/>
       <c r="DZ15" s="8"/>
@@ -2709,7 +2709,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="80"/>
+      <c r="I16" s="73"/>
       <c r="J16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2728,14 +2728,14 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
-      <c r="AC16" s="78"/>
+      <c r="AC16" s="79"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
-      <c r="AF16" s="84"/>
+      <c r="AF16" s="78"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
-      <c r="AJ16" s="78"/>
+      <c r="AJ16" s="79"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
@@ -2749,8 +2749,8 @@
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="10"/>
-      <c r="AX16" s="85"/>
-      <c r="AY16" s="92"/>
+      <c r="AX16" s="67"/>
+      <c r="AY16" s="71"/>
       <c r="AZ16" s="2"/>
       <c r="BA16" s="2"/>
       <c r="BB16" s="2"/>
@@ -2774,31 +2774,31 @@
       <c r="BT16" s="2"/>
       <c r="BU16" s="2"/>
       <c r="BV16" s="2"/>
-      <c r="BW16" s="92"/>
+      <c r="BW16" s="71"/>
       <c r="BX16" s="2"/>
       <c r="BY16" s="2"/>
       <c r="BZ16" s="2"/>
       <c r="CA16" s="2"/>
       <c r="CB16" s="2"/>
       <c r="CC16" s="2"/>
-      <c r="CD16" s="80"/>
-      <c r="CE16" s="95"/>
+      <c r="CD16" s="73"/>
+      <c r="CE16" s="76"/>
       <c r="CF16" s="2"/>
-      <c r="CG16" s="78"/>
+      <c r="CG16" s="79"/>
       <c r="CH16" s="2"/>
       <c r="CI16" s="2"/>
       <c r="CJ16" s="2"/>
       <c r="CK16" s="2"/>
       <c r="CL16" s="2"/>
       <c r="CM16" s="2"/>
-      <c r="CN16" s="95"/>
+      <c r="CN16" s="76"/>
       <c r="CO16" s="2"/>
       <c r="CP16" s="2"/>
       <c r="CQ16" s="2"/>
       <c r="CR16" s="2"/>
       <c r="CS16" s="2"/>
       <c r="CT16" s="2"/>
-      <c r="CU16" s="89"/>
+      <c r="CU16" s="68"/>
       <c r="CV16" s="2"/>
       <c r="CW16" s="2"/>
       <c r="CX16" s="2"/>
@@ -2810,7 +2810,7 @@
       <c r="DD16" s="2"/>
       <c r="DE16" s="2"/>
       <c r="DF16" s="2"/>
-      <c r="DG16" s="97"/>
+      <c r="DG16" s="80"/>
       <c r="DH16" s="2"/>
       <c r="DI16" s="2"/>
       <c r="DJ16" s="2"/>
@@ -2819,14 +2819,14 @@
       <c r="DM16" s="2"/>
       <c r="DN16" s="2"/>
       <c r="DO16" s="2"/>
-      <c r="DP16" s="95"/>
+      <c r="DP16" s="76"/>
       <c r="DQ16" s="2"/>
       <c r="DR16" s="2"/>
       <c r="DS16" s="8"/>
       <c r="DT16" s="8"/>
       <c r="DU16" s="8"/>
       <c r="DV16" s="8"/>
-      <c r="DW16" s="89"/>
+      <c r="DW16" s="68"/>
       <c r="DX16" s="8"/>
       <c r="DY16" s="8"/>
       <c r="DZ16" s="8"/>
@@ -2839,17 +2839,17 @@
       <c r="EG16" s="2"/>
     </row>
     <row r="17" spans="1:137" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="62"/>
+      <c r="B17" s="86"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="80"/>
+      <c r="I17" s="73"/>
       <c r="J17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2868,14 +2868,14 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
-      <c r="AC17" s="78"/>
+      <c r="AC17" s="79"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
-      <c r="AF17" s="84"/>
+      <c r="AF17" s="78"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
-      <c r="AJ17" s="78"/>
+      <c r="AJ17" s="79"/>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
@@ -2889,8 +2889,8 @@
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="10"/>
-      <c r="AX17" s="85"/>
-      <c r="AY17" s="92"/>
+      <c r="AX17" s="67"/>
+      <c r="AY17" s="71"/>
       <c r="AZ17" s="2"/>
       <c r="BA17" s="2"/>
       <c r="BB17" s="2"/>
@@ -2914,31 +2914,31 @@
       <c r="BT17" s="2"/>
       <c r="BU17" s="2"/>
       <c r="BV17" s="2"/>
-      <c r="BW17" s="92"/>
+      <c r="BW17" s="71"/>
       <c r="BX17" s="2"/>
       <c r="BY17" s="2"/>
       <c r="BZ17" s="2"/>
       <c r="CA17" s="2"/>
       <c r="CB17" s="2"/>
       <c r="CC17" s="2"/>
-      <c r="CD17" s="80"/>
-      <c r="CE17" s="95"/>
+      <c r="CD17" s="73"/>
+      <c r="CE17" s="76"/>
       <c r="CF17" s="2"/>
-      <c r="CG17" s="78"/>
+      <c r="CG17" s="79"/>
       <c r="CH17" s="2"/>
       <c r="CI17" s="2"/>
       <c r="CJ17" s="2"/>
       <c r="CK17" s="2"/>
       <c r="CL17" s="2"/>
       <c r="CM17" s="2"/>
-      <c r="CN17" s="95"/>
+      <c r="CN17" s="76"/>
       <c r="CO17" s="2"/>
       <c r="CP17" s="2"/>
       <c r="CQ17" s="2"/>
       <c r="CR17" s="2"/>
       <c r="CS17" s="2"/>
       <c r="CT17" s="2"/>
-      <c r="CU17" s="89"/>
+      <c r="CU17" s="68"/>
       <c r="CV17" s="2"/>
       <c r="CW17" s="2"/>
       <c r="CX17" s="2"/>
@@ -2950,7 +2950,7 @@
       <c r="DD17" s="2"/>
       <c r="DE17" s="2"/>
       <c r="DF17" s="2"/>
-      <c r="DG17" s="97"/>
+      <c r="DG17" s="80"/>
       <c r="DH17" s="2"/>
       <c r="DI17" s="2"/>
       <c r="DJ17" s="2"/>
@@ -2959,14 +2959,14 @@
       <c r="DM17" s="2"/>
       <c r="DN17" s="2"/>
       <c r="DO17" s="2"/>
-      <c r="DP17" s="95"/>
+      <c r="DP17" s="76"/>
       <c r="DQ17" s="2"/>
       <c r="DR17" s="2"/>
       <c r="DS17" s="8"/>
       <c r="DT17" s="8"/>
       <c r="DU17" s="8"/>
       <c r="DV17" s="8"/>
-      <c r="DW17" s="89"/>
+      <c r="DW17" s="68"/>
       <c r="DX17" s="8"/>
       <c r="DY17" s="8"/>
       <c r="DZ17" s="8"/>
@@ -2992,7 +2992,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="80"/>
+      <c r="I18" s="73"/>
       <c r="J18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -3011,14 +3011,14 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
-      <c r="AC18" s="78"/>
+      <c r="AC18" s="79"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
-      <c r="AF18" s="84"/>
+      <c r="AF18" s="78"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
-      <c r="AJ18" s="78"/>
+      <c r="AJ18" s="79"/>
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
@@ -3032,8 +3032,8 @@
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="10"/>
-      <c r="AX18" s="85"/>
-      <c r="AY18" s="92"/>
+      <c r="AX18" s="67"/>
+      <c r="AY18" s="71"/>
       <c r="AZ18" s="2"/>
       <c r="BA18" s="2"/>
       <c r="BB18" s="2"/>
@@ -3057,31 +3057,31 @@
       <c r="BT18" s="2"/>
       <c r="BU18" s="2"/>
       <c r="BV18" s="2"/>
-      <c r="BW18" s="92"/>
+      <c r="BW18" s="71"/>
       <c r="BX18" s="2"/>
       <c r="BY18" s="2"/>
       <c r="BZ18" s="2"/>
       <c r="CA18" s="2"/>
       <c r="CB18" s="2"/>
       <c r="CC18" s="2"/>
-      <c r="CD18" s="80"/>
-      <c r="CE18" s="95"/>
+      <c r="CD18" s="73"/>
+      <c r="CE18" s="76"/>
       <c r="CF18" s="2"/>
-      <c r="CG18" s="78"/>
+      <c r="CG18" s="79"/>
       <c r="CH18" s="2"/>
       <c r="CI18" s="2"/>
       <c r="CJ18" s="2"/>
       <c r="CK18" s="2"/>
       <c r="CL18" s="2"/>
       <c r="CM18" s="2"/>
-      <c r="CN18" s="95"/>
+      <c r="CN18" s="76"/>
       <c r="CO18" s="2"/>
       <c r="CP18" s="2"/>
       <c r="CQ18" s="2"/>
       <c r="CR18" s="2"/>
       <c r="CS18" s="2"/>
       <c r="CT18" s="2"/>
-      <c r="CU18" s="89"/>
+      <c r="CU18" s="68"/>
       <c r="CV18" s="2"/>
       <c r="CW18" s="2"/>
       <c r="CX18" s="2"/>
@@ -3093,7 +3093,7 @@
       <c r="DD18" s="2"/>
       <c r="DE18" s="2"/>
       <c r="DF18" s="2"/>
-      <c r="DG18" s="97"/>
+      <c r="DG18" s="80"/>
       <c r="DH18" s="2"/>
       <c r="DI18" s="2"/>
       <c r="DJ18" s="2"/>
@@ -3102,14 +3102,14 @@
       <c r="DM18" s="2"/>
       <c r="DN18" s="2"/>
       <c r="DO18" s="2"/>
-      <c r="DP18" s="95"/>
+      <c r="DP18" s="76"/>
       <c r="DQ18" s="2"/>
       <c r="DR18" s="2"/>
       <c r="DS18" s="8"/>
       <c r="DT18" s="8"/>
       <c r="DU18" s="8"/>
       <c r="DV18" s="8"/>
-      <c r="DW18" s="89"/>
+      <c r="DW18" s="68"/>
       <c r="DX18" s="8"/>
       <c r="DY18" s="8"/>
       <c r="DZ18" s="8"/>
@@ -3122,17 +3122,17 @@
       <c r="EG18" s="2"/>
     </row>
     <row r="19" spans="1:137" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="62"/>
+      <c r="B19" s="86"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="80"/>
+      <c r="I19" s="73"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -3152,14 +3152,14 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
-      <c r="AC19" s="78"/>
+      <c r="AC19" s="79"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
-      <c r="AF19" s="84"/>
+      <c r="AF19" s="78"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
-      <c r="AJ19" s="78"/>
+      <c r="AJ19" s="79"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
@@ -3173,8 +3173,8 @@
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="10"/>
-      <c r="AX19" s="85"/>
-      <c r="AY19" s="92"/>
+      <c r="AX19" s="67"/>
+      <c r="AY19" s="71"/>
       <c r="AZ19" s="2"/>
       <c r="BA19" s="2"/>
       <c r="BB19" s="2"/>
@@ -3198,31 +3198,31 @@
       <c r="BT19" s="2"/>
       <c r="BU19" s="2"/>
       <c r="BV19" s="2"/>
-      <c r="BW19" s="92"/>
+      <c r="BW19" s="71"/>
       <c r="BX19" s="2"/>
       <c r="BY19" s="2"/>
       <c r="BZ19" s="2"/>
       <c r="CA19" s="2"/>
       <c r="CB19" s="2"/>
       <c r="CC19" s="2"/>
-      <c r="CD19" s="80"/>
-      <c r="CE19" s="95"/>
+      <c r="CD19" s="73"/>
+      <c r="CE19" s="76"/>
       <c r="CF19" s="2"/>
-      <c r="CG19" s="78"/>
+      <c r="CG19" s="79"/>
       <c r="CH19" s="2"/>
       <c r="CI19" s="2"/>
       <c r="CJ19" s="2"/>
       <c r="CK19" s="2"/>
       <c r="CL19" s="2"/>
       <c r="CM19" s="2"/>
-      <c r="CN19" s="95"/>
+      <c r="CN19" s="76"/>
       <c r="CO19" s="2"/>
       <c r="CP19" s="2"/>
       <c r="CQ19" s="2"/>
       <c r="CR19" s="2"/>
       <c r="CS19" s="2"/>
       <c r="CT19" s="2"/>
-      <c r="CU19" s="89"/>
+      <c r="CU19" s="68"/>
       <c r="CV19" s="2"/>
       <c r="CW19" s="2"/>
       <c r="CX19" s="2"/>
@@ -3234,7 +3234,7 @@
       <c r="DD19" s="2"/>
       <c r="DE19" s="2"/>
       <c r="DF19" s="2"/>
-      <c r="DG19" s="97"/>
+      <c r="DG19" s="80"/>
       <c r="DH19" s="2"/>
       <c r="DI19" s="2"/>
       <c r="DJ19" s="2"/>
@@ -3243,14 +3243,14 @@
       <c r="DM19" s="2"/>
       <c r="DN19" s="2"/>
       <c r="DO19" s="2"/>
-      <c r="DP19" s="95"/>
+      <c r="DP19" s="76"/>
       <c r="DQ19" s="2"/>
       <c r="DR19" s="2"/>
       <c r="DS19" s="8"/>
       <c r="DT19" s="8"/>
       <c r="DU19" s="8"/>
       <c r="DV19" s="8"/>
-      <c r="DW19" s="89"/>
+      <c r="DW19" s="68"/>
       <c r="DX19" s="8"/>
       <c r="DY19" s="8"/>
       <c r="DZ19" s="8"/>
@@ -3276,7 +3276,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="81"/>
+      <c r="I20" s="74"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -3296,14 +3296,14 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
-      <c r="AC20" s="79"/>
+      <c r="AC20" s="82"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
-      <c r="AF20" s="85"/>
+      <c r="AF20" s="67"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
-      <c r="AJ20" s="79"/>
+      <c r="AJ20" s="82"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
@@ -3317,8 +3317,8 @@
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="11"/>
-      <c r="AX20" s="85"/>
-      <c r="AY20" s="93"/>
+      <c r="AX20" s="67"/>
+      <c r="AY20" s="72"/>
       <c r="AZ20" s="2"/>
       <c r="BA20" s="2"/>
       <c r="BB20" s="2"/>
@@ -3342,31 +3342,31 @@
       <c r="BT20" s="2"/>
       <c r="BU20" s="2"/>
       <c r="BV20" s="2"/>
-      <c r="BW20" s="93"/>
+      <c r="BW20" s="72"/>
       <c r="BX20" s="2"/>
       <c r="BY20" s="2"/>
       <c r="BZ20" s="2"/>
       <c r="CA20" s="2"/>
       <c r="CB20" s="2"/>
       <c r="CC20" s="2"/>
-      <c r="CD20" s="81"/>
-      <c r="CE20" s="96"/>
+      <c r="CD20" s="74"/>
+      <c r="CE20" s="77"/>
       <c r="CF20" s="2"/>
-      <c r="CG20" s="79"/>
+      <c r="CG20" s="82"/>
       <c r="CH20" s="2"/>
       <c r="CI20" s="2"/>
       <c r="CJ20" s="2"/>
       <c r="CK20" s="2"/>
       <c r="CL20" s="2"/>
       <c r="CM20" s="2"/>
-      <c r="CN20" s="96"/>
+      <c r="CN20" s="77"/>
       <c r="CO20" s="2"/>
       <c r="CP20" s="2"/>
       <c r="CQ20" s="2"/>
       <c r="CR20" s="2"/>
       <c r="CS20" s="2"/>
       <c r="CT20" s="2"/>
-      <c r="CU20" s="90"/>
+      <c r="CU20" s="69"/>
       <c r="CV20" s="2"/>
       <c r="CW20" s="2"/>
       <c r="CX20" s="2"/>
@@ -3378,7 +3378,7 @@
       <c r="DD20" s="2"/>
       <c r="DE20" s="2"/>
       <c r="DF20" s="2"/>
-      <c r="DG20" s="98"/>
+      <c r="DG20" s="81"/>
       <c r="DH20" s="2"/>
       <c r="DI20" s="2"/>
       <c r="DJ20" s="2"/>
@@ -3387,14 +3387,14 @@
       <c r="DM20" s="2"/>
       <c r="DN20" s="2"/>
       <c r="DO20" s="2"/>
-      <c r="DP20" s="96"/>
+      <c r="DP20" s="77"/>
       <c r="DQ20" s="2"/>
       <c r="DR20" s="2"/>
       <c r="DS20" s="2"/>
       <c r="DT20" s="2"/>
       <c r="DU20" s="2"/>
       <c r="DV20" s="2"/>
-      <c r="DW20" s="90"/>
+      <c r="DW20" s="69"/>
       <c r="DX20" s="2"/>
       <c r="DY20" s="2"/>
       <c r="DZ20" s="2"/>
@@ -3407,153 +3407,153 @@
       <c r="EG20" s="2"/>
     </row>
     <row r="21" spans="1:137" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="70">
+      <c r="B21" s="101"/>
+      <c r="C21" s="104">
         <v>42675</v>
       </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="71"/>
-      <c r="V21" s="71"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="71"/>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="71"/>
-      <c r="AB21" s="71"/>
-      <c r="AC21" s="71"/>
-      <c r="AD21" s="71"/>
-      <c r="AE21" s="71"/>
-      <c r="AF21" s="71"/>
-      <c r="AG21" s="77">
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="83"/>
+      <c r="S21" s="83"/>
+      <c r="T21" s="83"/>
+      <c r="U21" s="83"/>
+      <c r="V21" s="83"/>
+      <c r="W21" s="83"/>
+      <c r="X21" s="83"/>
+      <c r="Y21" s="83"/>
+      <c r="Z21" s="83"/>
+      <c r="AA21" s="83"/>
+      <c r="AB21" s="83"/>
+      <c r="AC21" s="83"/>
+      <c r="AD21" s="83"/>
+      <c r="AE21" s="83"/>
+      <c r="AF21" s="83"/>
+      <c r="AG21" s="63">
         <v>42705</v>
       </c>
-      <c r="AH21" s="71"/>
-      <c r="AI21" s="71"/>
-      <c r="AJ21" s="71"/>
-      <c r="AK21" s="71"/>
-      <c r="AL21" s="71"/>
-      <c r="AM21" s="71"/>
-      <c r="AN21" s="71"/>
-      <c r="AO21" s="71"/>
-      <c r="AP21" s="71"/>
-      <c r="AQ21" s="71"/>
-      <c r="AR21" s="71"/>
-      <c r="AS21" s="71"/>
-      <c r="AT21" s="71"/>
-      <c r="AU21" s="71"/>
-      <c r="AV21" s="71"/>
-      <c r="AW21" s="71"/>
-      <c r="AX21" s="71"/>
-      <c r="AY21" s="71"/>
-      <c r="AZ21" s="71"/>
-      <c r="BA21" s="71"/>
-      <c r="BB21" s="71"/>
-      <c r="BC21" s="71"/>
-      <c r="BD21" s="71"/>
-      <c r="BE21" s="71"/>
-      <c r="BF21" s="71"/>
-      <c r="BG21" s="71"/>
-      <c r="BH21" s="71"/>
-      <c r="BI21" s="71"/>
-      <c r="BJ21" s="71"/>
-      <c r="BK21" s="71"/>
-      <c r="BL21" s="77">
+      <c r="AH21" s="83"/>
+      <c r="AI21" s="83"/>
+      <c r="AJ21" s="83"/>
+      <c r="AK21" s="83"/>
+      <c r="AL21" s="83"/>
+      <c r="AM21" s="83"/>
+      <c r="AN21" s="83"/>
+      <c r="AO21" s="83"/>
+      <c r="AP21" s="83"/>
+      <c r="AQ21" s="83"/>
+      <c r="AR21" s="83"/>
+      <c r="AS21" s="83"/>
+      <c r="AT21" s="83"/>
+      <c r="AU21" s="83"/>
+      <c r="AV21" s="83"/>
+      <c r="AW21" s="83"/>
+      <c r="AX21" s="83"/>
+      <c r="AY21" s="83"/>
+      <c r="AZ21" s="83"/>
+      <c r="BA21" s="83"/>
+      <c r="BB21" s="83"/>
+      <c r="BC21" s="83"/>
+      <c r="BD21" s="83"/>
+      <c r="BE21" s="83"/>
+      <c r="BF21" s="83"/>
+      <c r="BG21" s="83"/>
+      <c r="BH21" s="83"/>
+      <c r="BI21" s="83"/>
+      <c r="BJ21" s="83"/>
+      <c r="BK21" s="83"/>
+      <c r="BL21" s="63">
         <v>42736</v>
       </c>
-      <c r="BM21" s="86"/>
-      <c r="BN21" s="86"/>
-      <c r="BO21" s="86"/>
-      <c r="BP21" s="86"/>
-      <c r="BQ21" s="86"/>
-      <c r="BR21" s="86"/>
-      <c r="BS21" s="86"/>
-      <c r="BT21" s="86"/>
-      <c r="BU21" s="86"/>
-      <c r="BV21" s="86"/>
-      <c r="BW21" s="86"/>
-      <c r="BX21" s="86"/>
-      <c r="BY21" s="86"/>
-      <c r="BZ21" s="86"/>
-      <c r="CA21" s="86"/>
-      <c r="CB21" s="86"/>
-      <c r="CC21" s="86"/>
-      <c r="CD21" s="86"/>
-      <c r="CE21" s="86"/>
-      <c r="CF21" s="86"/>
-      <c r="CG21" s="86"/>
-      <c r="CH21" s="86"/>
-      <c r="CI21" s="86"/>
-      <c r="CJ21" s="86"/>
-      <c r="CK21" s="86"/>
-      <c r="CL21" s="86"/>
-      <c r="CM21" s="86"/>
-      <c r="CN21" s="86"/>
-      <c r="CO21" s="86"/>
-      <c r="CP21" s="86"/>
-      <c r="CQ21" s="77">
+      <c r="BM21" s="64"/>
+      <c r="BN21" s="64"/>
+      <c r="BO21" s="64"/>
+      <c r="BP21" s="64"/>
+      <c r="BQ21" s="64"/>
+      <c r="BR21" s="64"/>
+      <c r="BS21" s="64"/>
+      <c r="BT21" s="64"/>
+      <c r="BU21" s="64"/>
+      <c r="BV21" s="64"/>
+      <c r="BW21" s="64"/>
+      <c r="BX21" s="64"/>
+      <c r="BY21" s="64"/>
+      <c r="BZ21" s="64"/>
+      <c r="CA21" s="64"/>
+      <c r="CB21" s="64"/>
+      <c r="CC21" s="64"/>
+      <c r="CD21" s="64"/>
+      <c r="CE21" s="64"/>
+      <c r="CF21" s="64"/>
+      <c r="CG21" s="64"/>
+      <c r="CH21" s="64"/>
+      <c r="CI21" s="64"/>
+      <c r="CJ21" s="64"/>
+      <c r="CK21" s="64"/>
+      <c r="CL21" s="64"/>
+      <c r="CM21" s="64"/>
+      <c r="CN21" s="64"/>
+      <c r="CO21" s="64"/>
+      <c r="CP21" s="64"/>
+      <c r="CQ21" s="63">
         <v>42767</v>
       </c>
-      <c r="CR21" s="71"/>
-      <c r="CS21" s="71"/>
-      <c r="CT21" s="71"/>
-      <c r="CU21" s="71"/>
-      <c r="CV21" s="71"/>
-      <c r="CW21" s="71"/>
-      <c r="CX21" s="71"/>
-      <c r="CY21" s="71"/>
-      <c r="CZ21" s="71"/>
-      <c r="DA21" s="71"/>
-      <c r="DB21" s="71"/>
-      <c r="DC21" s="71"/>
-      <c r="DD21" s="71"/>
-      <c r="DE21" s="71"/>
-      <c r="DF21" s="71"/>
-      <c r="DG21" s="71"/>
-      <c r="DH21" s="71"/>
-      <c r="DI21" s="71"/>
-      <c r="DJ21" s="71"/>
-      <c r="DK21" s="71"/>
-      <c r="DL21" s="71"/>
-      <c r="DM21" s="71"/>
-      <c r="DN21" s="71"/>
-      <c r="DO21" s="71"/>
-      <c r="DP21" s="71"/>
-      <c r="DQ21" s="71"/>
-      <c r="DR21" s="99"/>
+      <c r="CR21" s="83"/>
+      <c r="CS21" s="83"/>
+      <c r="CT21" s="83"/>
+      <c r="CU21" s="83"/>
+      <c r="CV21" s="83"/>
+      <c r="CW21" s="83"/>
+      <c r="CX21" s="83"/>
+      <c r="CY21" s="83"/>
+      <c r="CZ21" s="83"/>
+      <c r="DA21" s="83"/>
+      <c r="DB21" s="83"/>
+      <c r="DC21" s="83"/>
+      <c r="DD21" s="83"/>
+      <c r="DE21" s="83"/>
+      <c r="DF21" s="83"/>
+      <c r="DG21" s="83"/>
+      <c r="DH21" s="83"/>
+      <c r="DI21" s="83"/>
+      <c r="DJ21" s="83"/>
+      <c r="DK21" s="83"/>
+      <c r="DL21" s="83"/>
+      <c r="DM21" s="83"/>
+      <c r="DN21" s="83"/>
+      <c r="DO21" s="83"/>
+      <c r="DP21" s="83"/>
+      <c r="DQ21" s="83"/>
+      <c r="DR21" s="84"/>
       <c r="DS21" s="31"/>
-      <c r="DT21" s="87"/>
-      <c r="DU21" s="88"/>
-      <c r="DV21" s="88"/>
-      <c r="DW21" s="88"/>
-      <c r="DX21" s="88"/>
-      <c r="DY21" s="88"/>
-      <c r="DZ21" s="88"/>
-      <c r="EA21" s="88"/>
-      <c r="EB21" s="88"/>
-      <c r="EC21" s="88"/>
+      <c r="DT21" s="65"/>
+      <c r="DU21" s="66"/>
+      <c r="DV21" s="66"/>
+      <c r="DW21" s="66"/>
+      <c r="DX21" s="66"/>
+      <c r="DY21" s="66"/>
+      <c r="DZ21" s="66"/>
+      <c r="EA21" s="66"/>
+      <c r="EB21" s="66"/>
+      <c r="EC21" s="66"/>
     </row>
     <row r="22" spans="1:137" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="68"/>
-      <c r="B22" s="69"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="103"/>
       <c r="C22" s="33">
         <v>1</v>
       </c>
@@ -3944,10 +3944,10 @@
       <c r="BV23" s="25"/>
     </row>
     <row r="24" spans="1:137" x14ac:dyDescent="0.15">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="62"/>
+      <c r="B24" s="86"/>
       <c r="AZ24" s="25"/>
       <c r="BA24" s="25"/>
       <c r="BB24" s="25"/>
@@ -3973,10 +3973,10 @@
       <c r="BV24" s="25"/>
     </row>
     <row r="25" spans="1:137" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="64"/>
+      <c r="B25" s="97"/>
       <c r="AZ25" s="25"/>
       <c r="BA25" s="25"/>
       <c r="BB25" s="25"/>
@@ -4002,8 +4002,8 @@
       <c r="BV25" s="25"/>
     </row>
     <row r="26" spans="1:137" x14ac:dyDescent="0.15">
-      <c r="A26" s="59"/>
-      <c r="B26" s="60"/>
+      <c r="A26" s="94"/>
+      <c r="B26" s="95"/>
       <c r="P26" s="29"/>
       <c r="AZ26" s="25"/>
       <c r="BA26" s="25"/>
@@ -4030,8 +4030,8 @@
       <c r="BV26" s="25"/>
     </row>
     <row r="27" spans="1:137" x14ac:dyDescent="0.15">
-      <c r="A27" s="48"/>
-      <c r="B27" s="49"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="55"/>
       <c r="P27" s="29"/>
       <c r="AZ27" s="25"/>
       <c r="BA27" s="25"/>
@@ -4058,8 +4058,8 @@
       <c r="BV27" s="25"/>
     </row>
     <row r="28" spans="1:137" x14ac:dyDescent="0.15">
-      <c r="A28" s="50"/>
-      <c r="B28" s="51"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="53"/>
       <c r="P28" s="29"/>
       <c r="AZ28" s="25"/>
       <c r="BA28" s="25"/>
@@ -4086,8 +4086,8 @@
       <c r="BV28" s="25"/>
     </row>
     <row r="29" spans="1:137" x14ac:dyDescent="0.15">
-      <c r="A29" s="50"/>
-      <c r="B29" s="51"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="53"/>
       <c r="P29" s="29"/>
       <c r="AG29" s="26"/>
       <c r="AJ29" s="26"/>
@@ -4146,8 +4146,8 @@
       <c r="BV30" s="25"/>
     </row>
     <row r="31" spans="1:137" x14ac:dyDescent="0.15">
-      <c r="A31" s="48"/>
-      <c r="B31" s="49"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="55"/>
       <c r="AZ31" s="25"/>
       <c r="BA31" s="25"/>
       <c r="BB31" s="25"/>
@@ -4201,13 +4201,13 @@
       <c r="BV32" s="25"/>
     </row>
     <row r="33" spans="1:74" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="54"/>
-      <c r="B33" s="55"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="106"/>
       <c r="P33" s="29"/>
     </row>
     <row r="34" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A34" s="50"/>
-      <c r="B34" s="51"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="53"/>
       <c r="P34" s="29"/>
       <c r="AZ34" s="25"/>
       <c r="BA34" s="25"/>
@@ -4234,8 +4234,8 @@
       <c r="BV34" s="25"/>
     </row>
     <row r="35" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A35" s="48"/>
-      <c r="B35" s="49"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="55"/>
       <c r="P35" s="29"/>
       <c r="AZ35" s="25"/>
       <c r="BA35" s="25"/>
@@ -4290,8 +4290,8 @@
       <c r="BV36" s="25"/>
     </row>
     <row r="37" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A37" s="56"/>
-      <c r="B37" s="56"/>
+      <c r="A37" s="107"/>
+      <c r="B37" s="107"/>
       <c r="C37" s="44"/>
       <c r="P37" s="29"/>
       <c r="AZ37" s="25"/>
@@ -4347,8 +4347,8 @@
       <c r="BV38" s="25"/>
     </row>
     <row r="39" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A39" s="48"/>
-      <c r="B39" s="49"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="55"/>
       <c r="P39" s="29"/>
       <c r="AZ39" s="25"/>
       <c r="BA39" s="25"/>
@@ -4375,8 +4375,8 @@
       <c r="BV39" s="25"/>
     </row>
     <row r="40" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A40" s="50"/>
-      <c r="B40" s="51"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="53"/>
       <c r="P40" s="29"/>
       <c r="AZ40" s="25"/>
       <c r="BA40" s="25"/>
@@ -4403,8 +4403,8 @@
       <c r="BV40" s="25"/>
     </row>
     <row r="41" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A41" s="48"/>
-      <c r="B41" s="49"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="55"/>
       <c r="P41" s="29"/>
       <c r="AZ41" s="25"/>
       <c r="BA41" s="25"/>
@@ -4515,8 +4515,8 @@
       <c r="BV44" s="25"/>
     </row>
     <row r="45" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A45" s="48"/>
-      <c r="B45" s="49"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="55"/>
       <c r="P45" s="29"/>
       <c r="AZ45" s="25"/>
       <c r="BA45" s="25"/>
@@ -4543,8 +4543,8 @@
       <c r="BV45" s="25"/>
     </row>
     <row r="46" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A46" s="57"/>
-      <c r="B46" s="58"/>
+      <c r="A46" s="108"/>
+      <c r="B46" s="109"/>
       <c r="AZ46" s="25"/>
       <c r="BA46" s="25"/>
       <c r="BB46" s="25"/>
@@ -4570,8 +4570,8 @@
       <c r="BV46" s="25"/>
     </row>
     <row r="47" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A47" s="103"/>
-      <c r="B47" s="104"/>
+      <c r="A47" s="61"/>
+      <c r="B47" s="62"/>
       <c r="AZ47" s="25"/>
       <c r="BA47" s="25"/>
       <c r="BB47" s="25"/>
@@ -4597,8 +4597,8 @@
       <c r="BV47" s="25"/>
     </row>
     <row r="48" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A48" s="48"/>
-      <c r="B48" s="49"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="55"/>
       <c r="AZ48" s="25"/>
       <c r="BA48" s="25"/>
       <c r="BB48" s="25"/>
@@ -4624,8 +4624,8 @@
       <c r="BV48" s="25"/>
     </row>
     <row r="49" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A49" s="50"/>
-      <c r="B49" s="51"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="53"/>
       <c r="AZ49" s="25"/>
       <c r="BA49" s="25"/>
       <c r="BB49" s="25"/>
@@ -4651,8 +4651,8 @@
       <c r="BV49" s="25"/>
     </row>
     <row r="50" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A50" s="48"/>
-      <c r="B50" s="49"/>
+      <c r="A50" s="54"/>
+      <c r="B50" s="55"/>
       <c r="AZ50" s="25"/>
       <c r="BA50" s="25"/>
       <c r="BB50" s="25"/>
@@ -4678,8 +4678,8 @@
       <c r="BV50" s="25"/>
     </row>
     <row r="51" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A51" s="50"/>
-      <c r="B51" s="51"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="53"/>
       <c r="AZ51" s="25"/>
       <c r="BA51" s="25"/>
       <c r="BB51" s="25"/>
@@ -4705,8 +4705,8 @@
       <c r="BV51" s="25"/>
     </row>
     <row r="52" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A52" s="101"/>
-      <c r="B52" s="102"/>
+      <c r="A52" s="57"/>
+      <c r="B52" s="58"/>
       <c r="AZ52" s="25"/>
       <c r="BA52" s="25"/>
       <c r="BB52" s="25"/>
@@ -4732,8 +4732,8 @@
       <c r="BV52" s="25"/>
     </row>
     <row r="53" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A53" s="48"/>
-      <c r="B53" s="49"/>
+      <c r="A53" s="54"/>
+      <c r="B53" s="55"/>
       <c r="AZ53" s="25"/>
       <c r="BA53" s="25"/>
       <c r="BB53" s="25"/>
@@ -4813,8 +4813,8 @@
       <c r="BV55" s="25"/>
     </row>
     <row r="56" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A56" s="46"/>
-      <c r="B56" s="47"/>
+      <c r="A56" s="59"/>
+      <c r="B56" s="60"/>
       <c r="AZ56" s="25"/>
       <c r="BA56" s="25"/>
       <c r="BB56" s="25"/>
@@ -4840,8 +4840,8 @@
       <c r="BV56" s="25"/>
     </row>
     <row r="57" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A57" s="48"/>
-      <c r="B57" s="49"/>
+      <c r="A57" s="54"/>
+      <c r="B57" s="55"/>
       <c r="AZ57" s="25"/>
       <c r="BA57" s="25"/>
       <c r="BB57" s="25"/>
@@ -4894,8 +4894,8 @@
       <c r="BV58" s="25"/>
     </row>
     <row r="59" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A59" s="48"/>
-      <c r="B59" s="49"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="55"/>
       <c r="AZ59" s="25"/>
       <c r="BA59" s="25"/>
       <c r="BB59" s="25"/>
@@ -4921,8 +4921,8 @@
       <c r="BV59" s="25"/>
     </row>
     <row r="60" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A60" s="100"/>
-      <c r="B60" s="51"/>
+      <c r="A60" s="56"/>
+      <c r="B60" s="53"/>
       <c r="AZ60" s="25"/>
       <c r="BA60" s="25"/>
       <c r="BB60" s="25"/>
@@ -4948,8 +4948,8 @@
       <c r="BV60" s="25"/>
     </row>
     <row r="61" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A61" s="50"/>
-      <c r="B61" s="51"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="53"/>
       <c r="AZ61" s="25"/>
       <c r="BA61" s="25"/>
       <c r="BB61" s="25"/>
@@ -5029,8 +5029,8 @@
       <c r="BV63" s="25"/>
     </row>
     <row r="64" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A64" s="50"/>
-      <c r="B64" s="51"/>
+      <c r="A64" s="52"/>
+      <c r="B64" s="53"/>
       <c r="AZ64" s="25"/>
       <c r="BA64" s="25"/>
       <c r="BB64" s="25"/>
@@ -5056,8 +5056,8 @@
       <c r="BV64" s="25"/>
     </row>
     <row r="65" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A65" s="52"/>
-      <c r="B65" s="53"/>
+      <c r="A65" s="110"/>
+      <c r="B65" s="111"/>
       <c r="AZ65" s="25"/>
       <c r="BA65" s="25"/>
       <c r="BB65" s="25"/>
@@ -5083,8 +5083,8 @@
       <c r="BV65" s="25"/>
     </row>
     <row r="66" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A66" s="52"/>
-      <c r="B66" s="53"/>
+      <c r="A66" s="110"/>
+      <c r="B66" s="111"/>
       <c r="AZ66" s="25"/>
       <c r="BA66" s="25"/>
       <c r="BB66" s="25"/>
@@ -5110,8 +5110,8 @@
       <c r="BV66" s="25"/>
     </row>
     <row r="67" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A67" s="48"/>
-      <c r="B67" s="49"/>
+      <c r="A67" s="54"/>
+      <c r="B67" s="55"/>
       <c r="AZ67" s="25"/>
       <c r="BA67" s="25"/>
       <c r="BB67" s="25"/>
@@ -5137,8 +5137,8 @@
       <c r="BV67" s="25"/>
     </row>
     <row r="68" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A68" s="52"/>
-      <c r="B68" s="53"/>
+      <c r="A68" s="110"/>
+      <c r="B68" s="111"/>
       <c r="AZ68" s="25"/>
       <c r="BA68" s="25"/>
       <c r="BB68" s="25"/>
@@ -5164,8 +5164,8 @@
       <c r="BV68" s="25"/>
     </row>
     <row r="69" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A69" s="50"/>
-      <c r="B69" s="51"/>
+      <c r="A69" s="52"/>
+      <c r="B69" s="53"/>
       <c r="AZ69" s="25"/>
       <c r="BA69" s="25"/>
       <c r="BB69" s="25"/>
@@ -5218,8 +5218,8 @@
       <c r="BV70" s="25"/>
     </row>
     <row r="71" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A71" s="46"/>
-      <c r="B71" s="47"/>
+      <c r="A71" s="59"/>
+      <c r="B71" s="60"/>
       <c r="AZ71" s="25"/>
       <c r="BA71" s="25"/>
       <c r="BB71" s="25"/>
@@ -5245,8 +5245,8 @@
       <c r="BV71" s="25"/>
     </row>
     <row r="72" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A72" s="46"/>
-      <c r="B72" s="47"/>
+      <c r="A72" s="59"/>
+      <c r="B72" s="60"/>
       <c r="AZ72" s="25"/>
       <c r="BA72" s="25"/>
       <c r="BB72" s="25"/>
@@ -5272,8 +5272,8 @@
       <c r="BV72" s="25"/>
     </row>
     <row r="73" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A73" s="46"/>
-      <c r="B73" s="47"/>
+      <c r="A73" s="59"/>
+      <c r="B73" s="60"/>
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
       <c r="BB73" s="25"/>
@@ -5299,8 +5299,8 @@
       <c r="BV73" s="25"/>
     </row>
     <row r="74" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A74" s="46"/>
-      <c r="B74" s="47"/>
+      <c r="A74" s="59"/>
+      <c r="B74" s="60"/>
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
       <c r="BB74" s="25"/>
@@ -5326,8 +5326,8 @@
       <c r="BV74" s="25"/>
     </row>
     <row r="75" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A75" s="46"/>
-      <c r="B75" s="47"/>
+      <c r="A75" s="59"/>
+      <c r="B75" s="60"/>
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
       <c r="BB75" s="25"/>
@@ -5353,8 +5353,8 @@
       <c r="BV75" s="25"/>
     </row>
     <row r="76" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A76" s="48"/>
-      <c r="B76" s="49"/>
+      <c r="A76" s="54"/>
+      <c r="B76" s="55"/>
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
       <c r="BB76" s="25"/>
@@ -10604,7 +10604,64 @@
       <c r="L782" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="76">
+  <mergeCells count="73">
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:AF21"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="X2:AC2"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="AG21:BK21"/>
+    <mergeCell ref="AC11:AC20"/>
+    <mergeCell ref="AJ10:AJ20"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="I15:I20"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="AF1:AF20"/>
+    <mergeCell ref="BL21:CP21"/>
+    <mergeCell ref="DT21:EC21"/>
+    <mergeCell ref="AX12:AX20"/>
+    <mergeCell ref="CU12:CU20"/>
+    <mergeCell ref="AY12:AY20"/>
+    <mergeCell ref="BW12:BW20"/>
+    <mergeCell ref="DW9:DW20"/>
+    <mergeCell ref="CD11:CD20"/>
+    <mergeCell ref="CE11:CE20"/>
+    <mergeCell ref="CN10:CN20"/>
+    <mergeCell ref="DG10:DG20"/>
+    <mergeCell ref="DP9:DP20"/>
+    <mergeCell ref="CG1:CG20"/>
+    <mergeCell ref="CQ21:DR21"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A48:B48"/>
@@ -10621,66 +10678,6 @@
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A47:B47"/>
-    <mergeCell ref="BL21:CP21"/>
-    <mergeCell ref="DT21:EC21"/>
-    <mergeCell ref="AX12:AX20"/>
-    <mergeCell ref="CU12:CU20"/>
-    <mergeCell ref="AY12:AY20"/>
-    <mergeCell ref="BW12:BW20"/>
-    <mergeCell ref="DW9:DW20"/>
-    <mergeCell ref="CD11:CD20"/>
-    <mergeCell ref="CE11:CE20"/>
-    <mergeCell ref="CN10:CN20"/>
-    <mergeCell ref="DG10:DG20"/>
-    <mergeCell ref="DP9:DP20"/>
-    <mergeCell ref="CG1:CG20"/>
-    <mergeCell ref="CQ21:DR21"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="AG21:BK21"/>
-    <mergeCell ref="AC11:AC20"/>
-    <mergeCell ref="AJ10:AJ20"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="I15:I20"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="AF1:AF20"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:AF21"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="X2:AC2"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B20">

--- a/task/GL31スケジュール.xlsx
+++ b/task/GL31スケジュール.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GL team\openGLNetWorkGame\task\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="-195" windowWidth="9645" windowHeight="10170"/>
+    <workbookView xWindow="120" yWindow="-192" windowWidth="9648" windowHeight="10176"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
     <sheet name="パラメーター" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="108">
   <si>
     <t>タイトル</t>
   </si>
@@ -366,6 +361,349 @@
     <t>#パーティクル</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動処理</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体当たり</t>
+    <rPh sb="0" eb="2">
+      <t>タイア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残機</t>
+    <rPh sb="0" eb="2">
+      <t>ザンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターセレクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倒した人</t>
+    <rPh sb="0" eb="1">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倒された人</t>
+    <rPh sb="0" eb="1">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ制御</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間経過</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>光源位置設定</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パーティクル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パーティクル処理</t>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>針</t>
+    <rPh sb="0" eb="1">
+      <t>ハリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衝撃波</t>
+    <rPh sb="0" eb="3">
+      <t>ショウゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飛ばされやすくなる奴</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヤツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度アップ</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度ダウン</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <rPh sb="0" eb="2">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコンの背景</t>
+    <rPh sb="5" eb="7">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風船</t>
+    <rPh sb="0" eb="2">
+      <t>フウセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それぞれのアイテムアイコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サウンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクター選択画面</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定音</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラセレクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンセル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風船破裂</t>
+    <rPh sb="0" eb="2">
+      <t>フウセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衝撃波の音</t>
+    <rPh sb="0" eb="3">
+      <t>ショウゲキハ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>針の音</t>
+    <rPh sb="0" eb="1">
+      <t>ハリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体当たりの音</t>
+    <rPh sb="0" eb="2">
+      <t>タイア</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>断末魔</t>
+    <rPh sb="0" eb="3">
+      <t>ダンマツマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームスタート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームセット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラムロール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー４種</t>
+    <rPh sb="6" eb="7">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブランコ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スカイスフィア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -375,7 +713,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ ;[Red]\-0\ "/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,6 +841,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -548,7 +893,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -889,13 +1234,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1007,20 +1361,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1053,19 +1398,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1079,76 +1415,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="55" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="55" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1156,33 +1432,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1211,26 +1460,119 @@
     <xf numFmtId="55" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="55" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="55" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1484,7 +1826,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1526,7 +1868,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1561,7 +1903,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1772,103 +2114,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EG782"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9:L11"/>
+      <selection pane="topRight" activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="24.625" style="1" customWidth="1"/>
-    <col min="3" max="55" width="3.5" style="8" customWidth="1"/>
-    <col min="56" max="56" width="3.75" style="8" customWidth="1"/>
-    <col min="57" max="133" width="3.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="1" customWidth="1"/>
+    <col min="3" max="55" width="3.44140625" style="8" customWidth="1"/>
+    <col min="56" max="56" width="3.77734375" style="8" customWidth="1"/>
+    <col min="57" max="133" width="3.44140625" style="8" customWidth="1"/>
     <col min="134" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:137" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:137" s="2" customFormat="1" ht="13.8" thickBot="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="AF1" s="78" t="s">
+      <c r="AF1" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="CG1" s="79" t="s">
+      <c r="CG1" s="77" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:137" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:137" s="2" customFormat="1" ht="13.8" thickBot="1">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
       <c r="W2" s="8"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="98"/>
-      <c r="AF2" s="78"/>
-      <c r="CG2" s="79"/>
-    </row>
-    <row r="3" spans="1:137" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="87" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AF2" s="83"/>
+      <c r="CG2" s="77"/>
+    </row>
+    <row r="3" spans="1:137" s="2" customFormat="1">
+      <c r="A3" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AF3" s="78"/>
-      <c r="CG3" s="79"/>
-    </row>
-    <row r="4" spans="1:137" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="88"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AF3" s="83"/>
+      <c r="CG3" s="77"/>
+    </row>
+    <row r="4" spans="1:137" s="2" customFormat="1">
+      <c r="A4" s="72"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -1896,12 +2238,12 @@
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
-      <c r="AF4" s="78"/>
-      <c r="CG4" s="79"/>
-    </row>
-    <row r="5" spans="1:137" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="88"/>
-      <c r="B5" s="49"/>
+      <c r="AF4" s="83"/>
+      <c r="CG4" s="77"/>
+    </row>
+    <row r="5" spans="1:137" s="2" customFormat="1">
+      <c r="A5" s="72"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -1929,12 +2271,12 @@
       <c r="AA5" s="8"/>
       <c r="AB5" s="8"/>
       <c r="AC5" s="8"/>
-      <c r="AF5" s="78"/>
-      <c r="CG5" s="79"/>
-    </row>
-    <row r="6" spans="1:137" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="88"/>
-      <c r="B6" s="49"/>
+      <c r="AF5" s="83"/>
+      <c r="CG5" s="77"/>
+    </row>
+    <row r="6" spans="1:137" s="2" customFormat="1">
+      <c r="A6" s="72"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -1962,12 +2304,12 @@
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
-      <c r="AF6" s="78"/>
-      <c r="CG6" s="79"/>
-    </row>
-    <row r="7" spans="1:137" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="88"/>
-      <c r="B7" s="49"/>
+      <c r="AF6" s="83"/>
+      <c r="CG6" s="77"/>
+    </row>
+    <row r="7" spans="1:137" s="2" customFormat="1">
+      <c r="A7" s="72"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -1995,12 +2337,12 @@
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
-      <c r="AF7" s="78"/>
-      <c r="CG7" s="79"/>
-    </row>
-    <row r="8" spans="1:137" s="2" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="88"/>
-      <c r="B8" s="49"/>
+      <c r="AF7" s="83"/>
+      <c r="CG7" s="77"/>
+    </row>
+    <row r="8" spans="1:137" s="2" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A8" s="72"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -2028,12 +2370,12 @@
       <c r="AA8" s="8"/>
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
-      <c r="AF8" s="78"/>
-      <c r="CG8" s="79"/>
-    </row>
-    <row r="9" spans="1:137" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="88"/>
-      <c r="B9" s="49"/>
+      <c r="AF8" s="83"/>
+      <c r="CG8" s="77"/>
+    </row>
+    <row r="9" spans="1:137" s="2" customFormat="1">
+      <c r="A9" s="72"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="8"/>
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
@@ -2048,7 +2390,7 @@
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="50"/>
+      <c r="Q9" s="47"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
@@ -2061,13 +2403,13 @@
       <c r="AA9" s="8"/>
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
-      <c r="AF9" s="78"/>
-      <c r="CG9" s="79"/>
-      <c r="DP9" s="78"/>
-      <c r="DW9" s="68"/>
-    </row>
-    <row r="10" spans="1:137" s="2" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="89"/>
+      <c r="AF9" s="83"/>
+      <c r="CG9" s="77"/>
+      <c r="DP9" s="83"/>
+      <c r="DW9" s="88"/>
+    </row>
+    <row r="10" spans="1:137" s="2" customFormat="1" ht="13.2" customHeight="1" thickBot="1">
+      <c r="A10" s="73"/>
       <c r="B10" s="15"/>
       <c r="C10" s="8"/>
       <c r="D10" s="31"/>
@@ -2082,15 +2424,15 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
-      <c r="AF10" s="78"/>
-      <c r="AJ10" s="79"/>
-      <c r="CG10" s="79"/>
-      <c r="CN10" s="78"/>
-      <c r="DG10" s="79"/>
-      <c r="DP10" s="76"/>
-      <c r="DW10" s="68"/>
-    </row>
-    <row r="11" spans="1:137" s="2" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AF10" s="83"/>
+      <c r="AJ10" s="77"/>
+      <c r="CG10" s="77"/>
+      <c r="CN10" s="83"/>
+      <c r="DG10" s="77"/>
+      <c r="DP10" s="94"/>
+      <c r="DW10" s="88"/>
+    </row>
+    <row r="11" spans="1:137" s="2" customFormat="1" ht="13.2" customHeight="1" thickBot="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="8"/>
@@ -2105,19 +2447,19 @@
       <c r="L11" s="31"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="51"/>
-      <c r="AC11" s="79"/>
-      <c r="AF11" s="78"/>
-      <c r="AJ11" s="79"/>
-      <c r="CD11" s="73"/>
-      <c r="CE11" s="75"/>
-      <c r="CG11" s="79"/>
-      <c r="CN11" s="76"/>
-      <c r="DG11" s="80"/>
-      <c r="DP11" s="76"/>
-      <c r="DW11" s="68"/>
-    </row>
-    <row r="12" spans="1:137" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O11" s="48"/>
+      <c r="AC11" s="77"/>
+      <c r="AF11" s="83"/>
+      <c r="AJ11" s="77"/>
+      <c r="CD11" s="79"/>
+      <c r="CE11" s="93"/>
+      <c r="CG11" s="77"/>
+      <c r="CN11" s="94"/>
+      <c r="DG11" s="96"/>
+      <c r="DP11" s="94"/>
+      <c r="DW11" s="88"/>
+    </row>
+    <row r="12" spans="1:137" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -2125,18 +2467,18 @@
         <f ca="1">TODAY()</f>
         <v>42681</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="90" t="s">
+      <c r="C12" s="43"/>
+      <c r="D12" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="91"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="75"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="8"/>
@@ -2153,14 +2495,14 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
-      <c r="AC12" s="79"/>
+      <c r="AC12" s="77"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
-      <c r="AF12" s="78"/>
+      <c r="AF12" s="83"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
-      <c r="AJ12" s="79"/>
+      <c r="AJ12" s="77"/>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
@@ -2174,8 +2516,8 @@
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="10"/>
-      <c r="AX12" s="67"/>
-      <c r="AY12" s="70"/>
+      <c r="AX12" s="84"/>
+      <c r="AY12" s="90"/>
       <c r="AZ12" s="2"/>
       <c r="BA12" s="2"/>
       <c r="BB12" s="2"/>
@@ -2199,31 +2541,31 @@
       <c r="BT12" s="2"/>
       <c r="BU12" s="2"/>
       <c r="BV12" s="2"/>
-      <c r="BW12" s="70"/>
+      <c r="BW12" s="90"/>
       <c r="BX12" s="2"/>
       <c r="BY12" s="2"/>
       <c r="BZ12" s="2"/>
       <c r="CA12" s="2"/>
       <c r="CB12" s="2"/>
       <c r="CC12" s="2"/>
-      <c r="CD12" s="73"/>
-      <c r="CE12" s="76"/>
+      <c r="CD12" s="79"/>
+      <c r="CE12" s="94"/>
       <c r="CF12" s="2"/>
-      <c r="CG12" s="79"/>
+      <c r="CG12" s="77"/>
       <c r="CH12" s="2"/>
       <c r="CI12" s="2"/>
       <c r="CJ12" s="2"/>
       <c r="CK12" s="2"/>
       <c r="CL12" s="2"/>
       <c r="CM12" s="2"/>
-      <c r="CN12" s="76"/>
+      <c r="CN12" s="94"/>
       <c r="CO12" s="2"/>
       <c r="CP12" s="2"/>
       <c r="CQ12" s="2"/>
       <c r="CR12" s="2"/>
       <c r="CS12" s="2"/>
       <c r="CT12" s="2"/>
-      <c r="CU12" s="68"/>
+      <c r="CU12" s="88"/>
       <c r="CV12" s="2"/>
       <c r="CW12" s="9"/>
       <c r="CX12" s="2"/>
@@ -2235,7 +2577,7 @@
       <c r="DD12" s="2"/>
       <c r="DE12" s="2"/>
       <c r="DF12" s="2"/>
-      <c r="DG12" s="80"/>
+      <c r="DG12" s="96"/>
       <c r="DH12" s="2"/>
       <c r="DI12" s="2"/>
       <c r="DJ12" s="2"/>
@@ -2244,14 +2586,14 @@
       <c r="DM12" s="2"/>
       <c r="DN12" s="9"/>
       <c r="DO12" s="2"/>
-      <c r="DP12" s="76"/>
+      <c r="DP12" s="94"/>
       <c r="DQ12" s="2"/>
       <c r="DR12" s="2"/>
       <c r="DS12" s="2"/>
       <c r="DT12" s="2"/>
       <c r="DU12" s="2"/>
       <c r="DV12" s="2"/>
-      <c r="DW12" s="68"/>
+      <c r="DW12" s="88"/>
       <c r="DX12" s="2"/>
       <c r="DY12" s="2"/>
       <c r="DZ12" s="2"/>
@@ -2263,23 +2605,23 @@
       <c r="EF12" s="2"/>
       <c r="EG12" s="2"/>
     </row>
-    <row r="13" spans="1:137" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="85" t="s">
+    <row r="13" spans="1:137" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A13" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="99"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="16"/>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="91"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="75"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="8"/>
@@ -2296,14 +2638,14 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
-      <c r="AC13" s="79"/>
+      <c r="AC13" s="77"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
-      <c r="AF13" s="78"/>
+      <c r="AF13" s="83"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
-      <c r="AJ13" s="79"/>
+      <c r="AJ13" s="77"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
@@ -2317,8 +2659,8 @@
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
       <c r="AW13" s="10"/>
-      <c r="AX13" s="67"/>
-      <c r="AY13" s="71"/>
+      <c r="AX13" s="84"/>
+      <c r="AY13" s="91"/>
       <c r="AZ13" s="2"/>
       <c r="BA13" s="2"/>
       <c r="BB13" s="2"/>
@@ -2342,31 +2684,31 @@
       <c r="BT13" s="2"/>
       <c r="BU13" s="2"/>
       <c r="BV13" s="2"/>
-      <c r="BW13" s="71"/>
+      <c r="BW13" s="91"/>
       <c r="BX13" s="2"/>
       <c r="BY13" s="2"/>
       <c r="BZ13" s="2"/>
       <c r="CA13" s="2"/>
       <c r="CB13" s="2"/>
       <c r="CC13" s="2"/>
-      <c r="CD13" s="73"/>
-      <c r="CE13" s="76"/>
+      <c r="CD13" s="79"/>
+      <c r="CE13" s="94"/>
       <c r="CF13" s="2"/>
-      <c r="CG13" s="79"/>
+      <c r="CG13" s="77"/>
       <c r="CH13" s="2"/>
       <c r="CI13" s="2"/>
       <c r="CJ13" s="2"/>
       <c r="CK13" s="2"/>
       <c r="CL13" s="2"/>
       <c r="CM13" s="2"/>
-      <c r="CN13" s="76"/>
+      <c r="CN13" s="94"/>
       <c r="CO13" s="2"/>
       <c r="CP13" s="2"/>
       <c r="CQ13" s="2"/>
       <c r="CR13" s="2"/>
       <c r="CS13" s="2"/>
       <c r="CT13" s="2"/>
-      <c r="CU13" s="68"/>
+      <c r="CU13" s="88"/>
       <c r="CV13" s="2"/>
       <c r="CW13" s="2"/>
       <c r="CX13" s="2"/>
@@ -2378,7 +2720,7 @@
       <c r="DD13" s="2"/>
       <c r="DE13" s="2"/>
       <c r="DF13" s="2"/>
-      <c r="DG13" s="80"/>
+      <c r="DG13" s="96"/>
       <c r="DH13" s="2"/>
       <c r="DI13" s="2"/>
       <c r="DJ13" s="2"/>
@@ -2387,14 +2729,14 @@
       <c r="DM13" s="2"/>
       <c r="DN13" s="2"/>
       <c r="DO13" s="2"/>
-      <c r="DP13" s="76"/>
+      <c r="DP13" s="94"/>
       <c r="DQ13" s="2"/>
       <c r="DR13" s="2"/>
       <c r="DS13" s="2"/>
       <c r="DT13" s="2"/>
       <c r="DU13" s="2"/>
       <c r="DV13" s="2"/>
-      <c r="DW13" s="68"/>
+      <c r="DW13" s="88"/>
       <c r="DX13" s="2"/>
       <c r="DY13" s="2"/>
       <c r="DZ13" s="2"/>
@@ -2406,7 +2748,7 @@
       <c r="EF13" s="2"/>
       <c r="EG13" s="2"/>
     </row>
-    <row r="14" spans="1:137" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:137" customFormat="1" ht="13.2" customHeight="1" thickBot="1">
       <c r="A14" s="23" t="s">
         <v>5</v>
       </c>
@@ -2415,17 +2757,17 @@
         <v>23</v>
       </c>
       <c r="C14" s="17"/>
-      <c r="D14" s="92" t="s">
+      <c r="D14" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="93"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="82"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="8"/>
@@ -2442,14 +2784,14 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="79"/>
+      <c r="AC14" s="77"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
-      <c r="AF14" s="78"/>
+      <c r="AF14" s="83"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
-      <c r="AJ14" s="79"/>
+      <c r="AJ14" s="77"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
@@ -2463,8 +2805,8 @@
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="10"/>
-      <c r="AX14" s="67"/>
-      <c r="AY14" s="71"/>
+      <c r="AX14" s="84"/>
+      <c r="AY14" s="91"/>
       <c r="AZ14" s="2"/>
       <c r="BA14" s="2"/>
       <c r="BB14" s="2"/>
@@ -2488,31 +2830,31 @@
       <c r="BT14" s="2"/>
       <c r="BU14" s="2"/>
       <c r="BV14" s="2"/>
-      <c r="BW14" s="71"/>
+      <c r="BW14" s="91"/>
       <c r="BX14" s="2"/>
       <c r="BY14" s="2"/>
       <c r="BZ14" s="2"/>
       <c r="CA14" s="2"/>
       <c r="CB14" s="2"/>
       <c r="CC14" s="2"/>
-      <c r="CD14" s="73"/>
-      <c r="CE14" s="76"/>
+      <c r="CD14" s="79"/>
+      <c r="CE14" s="94"/>
       <c r="CF14" s="2"/>
-      <c r="CG14" s="79"/>
+      <c r="CG14" s="77"/>
       <c r="CH14" s="2"/>
       <c r="CI14" s="2"/>
       <c r="CJ14" s="2"/>
       <c r="CK14" s="2"/>
       <c r="CL14" s="2"/>
       <c r="CM14" s="2"/>
-      <c r="CN14" s="76"/>
+      <c r="CN14" s="94"/>
       <c r="CO14" s="2"/>
       <c r="CP14" s="2"/>
       <c r="CQ14" s="2"/>
       <c r="CR14" s="2"/>
       <c r="CS14" s="2"/>
       <c r="CT14" s="2"/>
-      <c r="CU14" s="68"/>
+      <c r="CU14" s="88"/>
       <c r="CV14" s="2"/>
       <c r="CW14" s="2"/>
       <c r="CX14" s="8"/>
@@ -2524,7 +2866,7 @@
       <c r="DD14" s="2"/>
       <c r="DE14" s="2"/>
       <c r="DF14" s="2"/>
-      <c r="DG14" s="80"/>
+      <c r="DG14" s="96"/>
       <c r="DH14" s="2"/>
       <c r="DI14" s="2"/>
       <c r="DJ14" s="2"/>
@@ -2533,14 +2875,14 @@
       <c r="DM14" s="2"/>
       <c r="DN14" s="2"/>
       <c r="DO14" s="2"/>
-      <c r="DP14" s="76"/>
+      <c r="DP14" s="94"/>
       <c r="DQ14" s="2"/>
       <c r="DR14" s="2"/>
       <c r="DS14" s="8"/>
       <c r="DT14" s="8"/>
       <c r="DU14" s="8"/>
       <c r="DV14" s="8"/>
-      <c r="DW14" s="68"/>
+      <c r="DW14" s="88"/>
       <c r="DX14" s="8"/>
       <c r="DY14" s="8"/>
       <c r="DZ14" s="8"/>
@@ -2552,18 +2894,18 @@
       <c r="EF14" s="2"/>
       <c r="EG14" s="2"/>
     </row>
-    <row r="15" spans="1:137" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="85" t="s">
+    <row r="15" spans="1:137" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A15" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="86"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="73" t="s">
+      <c r="I15" s="79" t="s">
         <v>8</v>
       </c>
       <c r="J15" s="2"/>
@@ -2585,14 +2927,14 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
-      <c r="AC15" s="79"/>
+      <c r="AC15" s="77"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
-      <c r="AF15" s="78"/>
+      <c r="AF15" s="83"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
-      <c r="AJ15" s="79"/>
+      <c r="AJ15" s="77"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
@@ -2606,8 +2948,8 @@
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="10"/>
-      <c r="AX15" s="67"/>
-      <c r="AY15" s="71"/>
+      <c r="AX15" s="84"/>
+      <c r="AY15" s="91"/>
       <c r="AZ15" s="2"/>
       <c r="BA15" s="2"/>
       <c r="BB15" s="2"/>
@@ -2631,31 +2973,31 @@
       <c r="BT15" s="2"/>
       <c r="BU15" s="2"/>
       <c r="BV15" s="2"/>
-      <c r="BW15" s="71"/>
+      <c r="BW15" s="91"/>
       <c r="BX15" s="2"/>
       <c r="BY15" s="2"/>
       <c r="BZ15" s="2"/>
       <c r="CA15" s="2"/>
       <c r="CB15" s="2"/>
       <c r="CC15" s="9"/>
-      <c r="CD15" s="73"/>
-      <c r="CE15" s="76"/>
+      <c r="CD15" s="79"/>
+      <c r="CE15" s="94"/>
       <c r="CF15" s="2"/>
-      <c r="CG15" s="79"/>
+      <c r="CG15" s="77"/>
       <c r="CH15" s="2"/>
       <c r="CI15" s="2"/>
       <c r="CJ15" s="2"/>
       <c r="CK15" s="2"/>
       <c r="CL15" s="2"/>
       <c r="CM15" s="2"/>
-      <c r="CN15" s="76"/>
+      <c r="CN15" s="94"/>
       <c r="CO15" s="2"/>
       <c r="CP15" s="2"/>
       <c r="CQ15" s="2"/>
       <c r="CR15" s="2"/>
       <c r="CS15" s="2"/>
       <c r="CT15" s="2"/>
-      <c r="CU15" s="68"/>
+      <c r="CU15" s="88"/>
       <c r="CV15" s="2"/>
       <c r="CW15" s="2"/>
       <c r="CX15" s="2"/>
@@ -2667,7 +3009,7 @@
       <c r="DD15" s="2"/>
       <c r="DE15" s="2"/>
       <c r="DF15" s="2"/>
-      <c r="DG15" s="80"/>
+      <c r="DG15" s="96"/>
       <c r="DH15" s="2"/>
       <c r="DI15" s="2"/>
       <c r="DJ15" s="2"/>
@@ -2676,14 +3018,14 @@
       <c r="DM15" s="2"/>
       <c r="DN15" s="2"/>
       <c r="DO15" s="2"/>
-      <c r="DP15" s="76"/>
+      <c r="DP15" s="94"/>
       <c r="DQ15" s="2"/>
       <c r="DR15" s="2"/>
       <c r="DS15" s="8"/>
       <c r="DT15" s="8"/>
       <c r="DU15" s="8"/>
       <c r="DV15" s="8"/>
-      <c r="DW15" s="68"/>
+      <c r="DW15" s="88"/>
       <c r="DX15" s="8"/>
       <c r="DY15" s="8"/>
       <c r="DZ15" s="8"/>
@@ -2695,7 +3037,7 @@
       <c r="EF15" s="2"/>
       <c r="EG15" s="2"/>
     </row>
-    <row r="16" spans="1:137" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:137" customFormat="1" ht="13.2" customHeight="1">
       <c r="A16" s="23" t="s">
         <v>5</v>
       </c>
@@ -2709,7 +3051,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="73"/>
+      <c r="I16" s="79"/>
       <c r="J16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2728,14 +3070,14 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
-      <c r="AC16" s="79"/>
+      <c r="AC16" s="77"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
-      <c r="AF16" s="78"/>
+      <c r="AF16" s="83"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
-      <c r="AJ16" s="79"/>
+      <c r="AJ16" s="77"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
@@ -2749,8 +3091,8 @@
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="10"/>
-      <c r="AX16" s="67"/>
-      <c r="AY16" s="71"/>
+      <c r="AX16" s="84"/>
+      <c r="AY16" s="91"/>
       <c r="AZ16" s="2"/>
       <c r="BA16" s="2"/>
       <c r="BB16" s="2"/>
@@ -2774,31 +3116,31 @@
       <c r="BT16" s="2"/>
       <c r="BU16" s="2"/>
       <c r="BV16" s="2"/>
-      <c r="BW16" s="71"/>
+      <c r="BW16" s="91"/>
       <c r="BX16" s="2"/>
       <c r="BY16" s="2"/>
       <c r="BZ16" s="2"/>
       <c r="CA16" s="2"/>
       <c r="CB16" s="2"/>
       <c r="CC16" s="2"/>
-      <c r="CD16" s="73"/>
-      <c r="CE16" s="76"/>
+      <c r="CD16" s="79"/>
+      <c r="CE16" s="94"/>
       <c r="CF16" s="2"/>
-      <c r="CG16" s="79"/>
+      <c r="CG16" s="77"/>
       <c r="CH16" s="2"/>
       <c r="CI16" s="2"/>
       <c r="CJ16" s="2"/>
       <c r="CK16" s="2"/>
       <c r="CL16" s="2"/>
       <c r="CM16" s="2"/>
-      <c r="CN16" s="76"/>
+      <c r="CN16" s="94"/>
       <c r="CO16" s="2"/>
       <c r="CP16" s="2"/>
       <c r="CQ16" s="2"/>
       <c r="CR16" s="2"/>
       <c r="CS16" s="2"/>
       <c r="CT16" s="2"/>
-      <c r="CU16" s="68"/>
+      <c r="CU16" s="88"/>
       <c r="CV16" s="2"/>
       <c r="CW16" s="2"/>
       <c r="CX16" s="2"/>
@@ -2810,7 +3152,7 @@
       <c r="DD16" s="2"/>
       <c r="DE16" s="2"/>
       <c r="DF16" s="2"/>
-      <c r="DG16" s="80"/>
+      <c r="DG16" s="96"/>
       <c r="DH16" s="2"/>
       <c r="DI16" s="2"/>
       <c r="DJ16" s="2"/>
@@ -2819,14 +3161,14 @@
       <c r="DM16" s="2"/>
       <c r="DN16" s="2"/>
       <c r="DO16" s="2"/>
-      <c r="DP16" s="76"/>
+      <c r="DP16" s="94"/>
       <c r="DQ16" s="2"/>
       <c r="DR16" s="2"/>
       <c r="DS16" s="8"/>
       <c r="DT16" s="8"/>
       <c r="DU16" s="8"/>
       <c r="DV16" s="8"/>
-      <c r="DW16" s="68"/>
+      <c r="DW16" s="88"/>
       <c r="DX16" s="8"/>
       <c r="DY16" s="8"/>
       <c r="DZ16" s="8"/>
@@ -2838,18 +3180,18 @@
       <c r="EF16" s="2"/>
       <c r="EG16" s="2"/>
     </row>
-    <row r="17" spans="1:137" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="85" t="s">
+    <row r="17" spans="1:137" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A17" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="86"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="73"/>
+      <c r="I17" s="79"/>
       <c r="J17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2868,14 +3210,14 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
-      <c r="AC17" s="79"/>
+      <c r="AC17" s="77"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
-      <c r="AF17" s="78"/>
+      <c r="AF17" s="83"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
-      <c r="AJ17" s="79"/>
+      <c r="AJ17" s="77"/>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
@@ -2889,8 +3231,8 @@
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="10"/>
-      <c r="AX17" s="67"/>
-      <c r="AY17" s="71"/>
+      <c r="AX17" s="84"/>
+      <c r="AY17" s="91"/>
       <c r="AZ17" s="2"/>
       <c r="BA17" s="2"/>
       <c r="BB17" s="2"/>
@@ -2914,31 +3256,31 @@
       <c r="BT17" s="2"/>
       <c r="BU17" s="2"/>
       <c r="BV17" s="2"/>
-      <c r="BW17" s="71"/>
+      <c r="BW17" s="91"/>
       <c r="BX17" s="2"/>
       <c r="BY17" s="2"/>
       <c r="BZ17" s="2"/>
       <c r="CA17" s="2"/>
       <c r="CB17" s="2"/>
       <c r="CC17" s="2"/>
-      <c r="CD17" s="73"/>
-      <c r="CE17" s="76"/>
+      <c r="CD17" s="79"/>
+      <c r="CE17" s="94"/>
       <c r="CF17" s="2"/>
-      <c r="CG17" s="79"/>
+      <c r="CG17" s="77"/>
       <c r="CH17" s="2"/>
       <c r="CI17" s="2"/>
       <c r="CJ17" s="2"/>
       <c r="CK17" s="2"/>
       <c r="CL17" s="2"/>
       <c r="CM17" s="2"/>
-      <c r="CN17" s="76"/>
+      <c r="CN17" s="94"/>
       <c r="CO17" s="2"/>
       <c r="CP17" s="2"/>
       <c r="CQ17" s="2"/>
       <c r="CR17" s="2"/>
       <c r="CS17" s="2"/>
       <c r="CT17" s="2"/>
-      <c r="CU17" s="68"/>
+      <c r="CU17" s="88"/>
       <c r="CV17" s="2"/>
       <c r="CW17" s="2"/>
       <c r="CX17" s="2"/>
@@ -2950,7 +3292,7 @@
       <c r="DD17" s="2"/>
       <c r="DE17" s="2"/>
       <c r="DF17" s="2"/>
-      <c r="DG17" s="80"/>
+      <c r="DG17" s="96"/>
       <c r="DH17" s="2"/>
       <c r="DI17" s="2"/>
       <c r="DJ17" s="2"/>
@@ -2959,14 +3301,14 @@
       <c r="DM17" s="2"/>
       <c r="DN17" s="2"/>
       <c r="DO17" s="2"/>
-      <c r="DP17" s="76"/>
+      <c r="DP17" s="94"/>
       <c r="DQ17" s="2"/>
       <c r="DR17" s="2"/>
       <c r="DS17" s="8"/>
       <c r="DT17" s="8"/>
       <c r="DU17" s="8"/>
       <c r="DV17" s="8"/>
-      <c r="DW17" s="68"/>
+      <c r="DW17" s="88"/>
       <c r="DX17" s="8"/>
       <c r="DY17" s="8"/>
       <c r="DZ17" s="8"/>
@@ -2978,7 +3320,7 @@
       <c r="EF17" s="2"/>
       <c r="EG17" s="2"/>
     </row>
-    <row r="18" spans="1:137" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:137" customFormat="1" ht="13.2" customHeight="1">
       <c r="A18" s="23" t="s">
         <v>5</v>
       </c>
@@ -2992,7 +3334,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="73"/>
+      <c r="I18" s="79"/>
       <c r="J18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -3011,14 +3353,14 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
-      <c r="AC18" s="79"/>
+      <c r="AC18" s="77"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
-      <c r="AF18" s="78"/>
+      <c r="AF18" s="83"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
-      <c r="AJ18" s="79"/>
+      <c r="AJ18" s="77"/>
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
@@ -3032,8 +3374,8 @@
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="10"/>
-      <c r="AX18" s="67"/>
-      <c r="AY18" s="71"/>
+      <c r="AX18" s="84"/>
+      <c r="AY18" s="91"/>
       <c r="AZ18" s="2"/>
       <c r="BA18" s="2"/>
       <c r="BB18" s="2"/>
@@ -3057,31 +3399,31 @@
       <c r="BT18" s="2"/>
       <c r="BU18" s="2"/>
       <c r="BV18" s="2"/>
-      <c r="BW18" s="71"/>
+      <c r="BW18" s="91"/>
       <c r="BX18" s="2"/>
       <c r="BY18" s="2"/>
       <c r="BZ18" s="2"/>
       <c r="CA18" s="2"/>
       <c r="CB18" s="2"/>
       <c r="CC18" s="2"/>
-      <c r="CD18" s="73"/>
-      <c r="CE18" s="76"/>
+      <c r="CD18" s="79"/>
+      <c r="CE18" s="94"/>
       <c r="CF18" s="2"/>
-      <c r="CG18" s="79"/>
+      <c r="CG18" s="77"/>
       <c r="CH18" s="2"/>
       <c r="CI18" s="2"/>
       <c r="CJ18" s="2"/>
       <c r="CK18" s="2"/>
       <c r="CL18" s="2"/>
       <c r="CM18" s="2"/>
-      <c r="CN18" s="76"/>
+      <c r="CN18" s="94"/>
       <c r="CO18" s="2"/>
       <c r="CP18" s="2"/>
       <c r="CQ18" s="2"/>
       <c r="CR18" s="2"/>
       <c r="CS18" s="2"/>
       <c r="CT18" s="2"/>
-      <c r="CU18" s="68"/>
+      <c r="CU18" s="88"/>
       <c r="CV18" s="2"/>
       <c r="CW18" s="2"/>
       <c r="CX18" s="2"/>
@@ -3093,7 +3435,7 @@
       <c r="DD18" s="2"/>
       <c r="DE18" s="2"/>
       <c r="DF18" s="2"/>
-      <c r="DG18" s="80"/>
+      <c r="DG18" s="96"/>
       <c r="DH18" s="2"/>
       <c r="DI18" s="2"/>
       <c r="DJ18" s="2"/>
@@ -3102,14 +3444,14 @@
       <c r="DM18" s="2"/>
       <c r="DN18" s="2"/>
       <c r="DO18" s="2"/>
-      <c r="DP18" s="76"/>
+      <c r="DP18" s="94"/>
       <c r="DQ18" s="2"/>
       <c r="DR18" s="2"/>
       <c r="DS18" s="8"/>
       <c r="DT18" s="8"/>
       <c r="DU18" s="8"/>
       <c r="DV18" s="8"/>
-      <c r="DW18" s="68"/>
+      <c r="DW18" s="88"/>
       <c r="DX18" s="8"/>
       <c r="DY18" s="8"/>
       <c r="DZ18" s="8"/>
@@ -3121,18 +3463,18 @@
       <c r="EF18" s="2"/>
       <c r="EG18" s="2"/>
     </row>
-    <row r="19" spans="1:137" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="85" t="s">
+    <row r="19" spans="1:137" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A19" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="86"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="73"/>
+      <c r="I19" s="79"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -3152,14 +3494,14 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
-      <c r="AC19" s="79"/>
+      <c r="AC19" s="77"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
-      <c r="AF19" s="78"/>
+      <c r="AF19" s="83"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
-      <c r="AJ19" s="79"/>
+      <c r="AJ19" s="77"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
@@ -3173,8 +3515,8 @@
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="10"/>
-      <c r="AX19" s="67"/>
-      <c r="AY19" s="71"/>
+      <c r="AX19" s="84"/>
+      <c r="AY19" s="91"/>
       <c r="AZ19" s="2"/>
       <c r="BA19" s="2"/>
       <c r="BB19" s="2"/>
@@ -3198,31 +3540,31 @@
       <c r="BT19" s="2"/>
       <c r="BU19" s="2"/>
       <c r="BV19" s="2"/>
-      <c r="BW19" s="71"/>
+      <c r="BW19" s="91"/>
       <c r="BX19" s="2"/>
       <c r="BY19" s="2"/>
       <c r="BZ19" s="2"/>
       <c r="CA19" s="2"/>
       <c r="CB19" s="2"/>
       <c r="CC19" s="2"/>
-      <c r="CD19" s="73"/>
-      <c r="CE19" s="76"/>
+      <c r="CD19" s="79"/>
+      <c r="CE19" s="94"/>
       <c r="CF19" s="2"/>
-      <c r="CG19" s="79"/>
+      <c r="CG19" s="77"/>
       <c r="CH19" s="2"/>
       <c r="CI19" s="2"/>
       <c r="CJ19" s="2"/>
       <c r="CK19" s="2"/>
       <c r="CL19" s="2"/>
       <c r="CM19" s="2"/>
-      <c r="CN19" s="76"/>
+      <c r="CN19" s="94"/>
       <c r="CO19" s="2"/>
       <c r="CP19" s="2"/>
       <c r="CQ19" s="2"/>
       <c r="CR19" s="2"/>
       <c r="CS19" s="2"/>
       <c r="CT19" s="2"/>
-      <c r="CU19" s="68"/>
+      <c r="CU19" s="88"/>
       <c r="CV19" s="2"/>
       <c r="CW19" s="2"/>
       <c r="CX19" s="2"/>
@@ -3234,7 +3576,7 @@
       <c r="DD19" s="2"/>
       <c r="DE19" s="2"/>
       <c r="DF19" s="2"/>
-      <c r="DG19" s="80"/>
+      <c r="DG19" s="96"/>
       <c r="DH19" s="2"/>
       <c r="DI19" s="2"/>
       <c r="DJ19" s="2"/>
@@ -3243,14 +3585,14 @@
       <c r="DM19" s="2"/>
       <c r="DN19" s="2"/>
       <c r="DO19" s="2"/>
-      <c r="DP19" s="76"/>
+      <c r="DP19" s="94"/>
       <c r="DQ19" s="2"/>
       <c r="DR19" s="2"/>
       <c r="DS19" s="8"/>
       <c r="DT19" s="8"/>
       <c r="DU19" s="8"/>
       <c r="DV19" s="8"/>
-      <c r="DW19" s="68"/>
+      <c r="DW19" s="88"/>
       <c r="DX19" s="8"/>
       <c r="DY19" s="8"/>
       <c r="DZ19" s="8"/>
@@ -3262,7 +3604,7 @@
       <c r="EF19" s="2"/>
       <c r="EG19" s="2"/>
     </row>
-    <row r="20" spans="1:137" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:137" customFormat="1" ht="13.95" customHeight="1" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
@@ -3276,7 +3618,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="74"/>
+      <c r="I20" s="80"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -3296,14 +3638,14 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
-      <c r="AC20" s="82"/>
+      <c r="AC20" s="78"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
-      <c r="AF20" s="67"/>
+      <c r="AF20" s="84"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
-      <c r="AJ20" s="82"/>
+      <c r="AJ20" s="78"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
@@ -3317,8 +3659,8 @@
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="11"/>
-      <c r="AX20" s="67"/>
-      <c r="AY20" s="72"/>
+      <c r="AX20" s="84"/>
+      <c r="AY20" s="92"/>
       <c r="AZ20" s="2"/>
       <c r="BA20" s="2"/>
       <c r="BB20" s="2"/>
@@ -3342,31 +3684,31 @@
       <c r="BT20" s="2"/>
       <c r="BU20" s="2"/>
       <c r="BV20" s="2"/>
-      <c r="BW20" s="72"/>
+      <c r="BW20" s="92"/>
       <c r="BX20" s="2"/>
       <c r="BY20" s="2"/>
       <c r="BZ20" s="2"/>
       <c r="CA20" s="2"/>
       <c r="CB20" s="2"/>
       <c r="CC20" s="2"/>
-      <c r="CD20" s="74"/>
-      <c r="CE20" s="77"/>
+      <c r="CD20" s="80"/>
+      <c r="CE20" s="95"/>
       <c r="CF20" s="2"/>
-      <c r="CG20" s="82"/>
+      <c r="CG20" s="78"/>
       <c r="CH20" s="2"/>
       <c r="CI20" s="2"/>
       <c r="CJ20" s="2"/>
       <c r="CK20" s="2"/>
       <c r="CL20" s="2"/>
       <c r="CM20" s="2"/>
-      <c r="CN20" s="77"/>
+      <c r="CN20" s="95"/>
       <c r="CO20" s="2"/>
       <c r="CP20" s="2"/>
       <c r="CQ20" s="2"/>
       <c r="CR20" s="2"/>
       <c r="CS20" s="2"/>
       <c r="CT20" s="2"/>
-      <c r="CU20" s="69"/>
+      <c r="CU20" s="89"/>
       <c r="CV20" s="2"/>
       <c r="CW20" s="2"/>
       <c r="CX20" s="2"/>
@@ -3378,7 +3720,7 @@
       <c r="DD20" s="2"/>
       <c r="DE20" s="2"/>
       <c r="DF20" s="2"/>
-      <c r="DG20" s="81"/>
+      <c r="DG20" s="97"/>
       <c r="DH20" s="2"/>
       <c r="DI20" s="2"/>
       <c r="DJ20" s="2"/>
@@ -3387,14 +3729,14 @@
       <c r="DM20" s="2"/>
       <c r="DN20" s="2"/>
       <c r="DO20" s="2"/>
-      <c r="DP20" s="77"/>
+      <c r="DP20" s="95"/>
       <c r="DQ20" s="2"/>
       <c r="DR20" s="2"/>
       <c r="DS20" s="2"/>
       <c r="DT20" s="2"/>
       <c r="DU20" s="2"/>
       <c r="DV20" s="2"/>
-      <c r="DW20" s="69"/>
+      <c r="DW20" s="89"/>
       <c r="DX20" s="2"/>
       <c r="DY20" s="2"/>
       <c r="DZ20" s="2"/>
@@ -3406,154 +3748,154 @@
       <c r="EF20" s="2"/>
       <c r="EG20" s="2"/>
     </row>
-    <row r="21" spans="1:137" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="100" t="s">
+    <row r="21" spans="1:137" ht="13.8" thickBot="1">
+      <c r="A21" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="104">
+      <c r="B21" s="66"/>
+      <c r="C21" s="69">
         <v>42675</v>
       </c>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="83"/>
-      <c r="O21" s="83"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="83"/>
-      <c r="S21" s="83"/>
-      <c r="T21" s="83"/>
-      <c r="U21" s="83"/>
-      <c r="V21" s="83"/>
-      <c r="W21" s="83"/>
-      <c r="X21" s="83"/>
-      <c r="Y21" s="83"/>
-      <c r="Z21" s="83"/>
-      <c r="AA21" s="83"/>
-      <c r="AB21" s="83"/>
-      <c r="AC21" s="83"/>
-      <c r="AD21" s="83"/>
-      <c r="AE21" s="83"/>
-      <c r="AF21" s="83"/>
-      <c r="AG21" s="63">
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="70"/>
+      <c r="X21" s="70"/>
+      <c r="Y21" s="70"/>
+      <c r="Z21" s="70"/>
+      <c r="AA21" s="70"/>
+      <c r="AB21" s="70"/>
+      <c r="AC21" s="70"/>
+      <c r="AD21" s="70"/>
+      <c r="AE21" s="70"/>
+      <c r="AF21" s="70"/>
+      <c r="AG21" s="76">
         <v>42705</v>
       </c>
-      <c r="AH21" s="83"/>
-      <c r="AI21" s="83"/>
-      <c r="AJ21" s="83"/>
-      <c r="AK21" s="83"/>
-      <c r="AL21" s="83"/>
-      <c r="AM21" s="83"/>
-      <c r="AN21" s="83"/>
-      <c r="AO21" s="83"/>
-      <c r="AP21" s="83"/>
-      <c r="AQ21" s="83"/>
-      <c r="AR21" s="83"/>
-      <c r="AS21" s="83"/>
-      <c r="AT21" s="83"/>
-      <c r="AU21" s="83"/>
-      <c r="AV21" s="83"/>
-      <c r="AW21" s="83"/>
-      <c r="AX21" s="83"/>
-      <c r="AY21" s="83"/>
-      <c r="AZ21" s="83"/>
-      <c r="BA21" s="83"/>
-      <c r="BB21" s="83"/>
-      <c r="BC21" s="83"/>
-      <c r="BD21" s="83"/>
-      <c r="BE21" s="83"/>
-      <c r="BF21" s="83"/>
-      <c r="BG21" s="83"/>
-      <c r="BH21" s="83"/>
-      <c r="BI21" s="83"/>
-      <c r="BJ21" s="83"/>
-      <c r="BK21" s="83"/>
-      <c r="BL21" s="63">
+      <c r="AH21" s="70"/>
+      <c r="AI21" s="70"/>
+      <c r="AJ21" s="70"/>
+      <c r="AK21" s="70"/>
+      <c r="AL21" s="70"/>
+      <c r="AM21" s="70"/>
+      <c r="AN21" s="70"/>
+      <c r="AO21" s="70"/>
+      <c r="AP21" s="70"/>
+      <c r="AQ21" s="70"/>
+      <c r="AR21" s="70"/>
+      <c r="AS21" s="70"/>
+      <c r="AT21" s="70"/>
+      <c r="AU21" s="70"/>
+      <c r="AV21" s="70"/>
+      <c r="AW21" s="70"/>
+      <c r="AX21" s="70"/>
+      <c r="AY21" s="70"/>
+      <c r="AZ21" s="70"/>
+      <c r="BA21" s="70"/>
+      <c r="BB21" s="70"/>
+      <c r="BC21" s="70"/>
+      <c r="BD21" s="70"/>
+      <c r="BE21" s="70"/>
+      <c r="BF21" s="70"/>
+      <c r="BG21" s="70"/>
+      <c r="BH21" s="70"/>
+      <c r="BI21" s="70"/>
+      <c r="BJ21" s="70"/>
+      <c r="BK21" s="70"/>
+      <c r="BL21" s="76">
         <v>42736</v>
       </c>
-      <c r="BM21" s="64"/>
-      <c r="BN21" s="64"/>
-      <c r="BO21" s="64"/>
-      <c r="BP21" s="64"/>
-      <c r="BQ21" s="64"/>
-      <c r="BR21" s="64"/>
-      <c r="BS21" s="64"/>
-      <c r="BT21" s="64"/>
-      <c r="BU21" s="64"/>
-      <c r="BV21" s="64"/>
-      <c r="BW21" s="64"/>
-      <c r="BX21" s="64"/>
-      <c r="BY21" s="64"/>
-      <c r="BZ21" s="64"/>
-      <c r="CA21" s="64"/>
-      <c r="CB21" s="64"/>
-      <c r="CC21" s="64"/>
-      <c r="CD21" s="64"/>
-      <c r="CE21" s="64"/>
-      <c r="CF21" s="64"/>
-      <c r="CG21" s="64"/>
-      <c r="CH21" s="64"/>
-      <c r="CI21" s="64"/>
-      <c r="CJ21" s="64"/>
-      <c r="CK21" s="64"/>
-      <c r="CL21" s="64"/>
-      <c r="CM21" s="64"/>
-      <c r="CN21" s="64"/>
-      <c r="CO21" s="64"/>
-      <c r="CP21" s="64"/>
-      <c r="CQ21" s="63">
+      <c r="BM21" s="85"/>
+      <c r="BN21" s="85"/>
+      <c r="BO21" s="85"/>
+      <c r="BP21" s="85"/>
+      <c r="BQ21" s="85"/>
+      <c r="BR21" s="85"/>
+      <c r="BS21" s="85"/>
+      <c r="BT21" s="85"/>
+      <c r="BU21" s="85"/>
+      <c r="BV21" s="85"/>
+      <c r="BW21" s="85"/>
+      <c r="BX21" s="85"/>
+      <c r="BY21" s="85"/>
+      <c r="BZ21" s="85"/>
+      <c r="CA21" s="85"/>
+      <c r="CB21" s="85"/>
+      <c r="CC21" s="85"/>
+      <c r="CD21" s="85"/>
+      <c r="CE21" s="85"/>
+      <c r="CF21" s="85"/>
+      <c r="CG21" s="85"/>
+      <c r="CH21" s="85"/>
+      <c r="CI21" s="85"/>
+      <c r="CJ21" s="85"/>
+      <c r="CK21" s="85"/>
+      <c r="CL21" s="85"/>
+      <c r="CM21" s="85"/>
+      <c r="CN21" s="85"/>
+      <c r="CO21" s="85"/>
+      <c r="CP21" s="85"/>
+      <c r="CQ21" s="76">
         <v>42767</v>
       </c>
-      <c r="CR21" s="83"/>
-      <c r="CS21" s="83"/>
-      <c r="CT21" s="83"/>
-      <c r="CU21" s="83"/>
-      <c r="CV21" s="83"/>
-      <c r="CW21" s="83"/>
-      <c r="CX21" s="83"/>
-      <c r="CY21" s="83"/>
-      <c r="CZ21" s="83"/>
-      <c r="DA21" s="83"/>
-      <c r="DB21" s="83"/>
-      <c r="DC21" s="83"/>
-      <c r="DD21" s="83"/>
-      <c r="DE21" s="83"/>
-      <c r="DF21" s="83"/>
-      <c r="DG21" s="83"/>
-      <c r="DH21" s="83"/>
-      <c r="DI21" s="83"/>
-      <c r="DJ21" s="83"/>
-      <c r="DK21" s="83"/>
-      <c r="DL21" s="83"/>
-      <c r="DM21" s="83"/>
-      <c r="DN21" s="83"/>
-      <c r="DO21" s="83"/>
-      <c r="DP21" s="83"/>
-      <c r="DQ21" s="83"/>
-      <c r="DR21" s="84"/>
+      <c r="CR21" s="70"/>
+      <c r="CS21" s="70"/>
+      <c r="CT21" s="70"/>
+      <c r="CU21" s="70"/>
+      <c r="CV21" s="70"/>
+      <c r="CW21" s="70"/>
+      <c r="CX21" s="70"/>
+      <c r="CY21" s="70"/>
+      <c r="CZ21" s="70"/>
+      <c r="DA21" s="70"/>
+      <c r="DB21" s="70"/>
+      <c r="DC21" s="70"/>
+      <c r="DD21" s="70"/>
+      <c r="DE21" s="70"/>
+      <c r="DF21" s="70"/>
+      <c r="DG21" s="70"/>
+      <c r="DH21" s="70"/>
+      <c r="DI21" s="70"/>
+      <c r="DJ21" s="70"/>
+      <c r="DK21" s="70"/>
+      <c r="DL21" s="70"/>
+      <c r="DM21" s="70"/>
+      <c r="DN21" s="70"/>
+      <c r="DO21" s="70"/>
+      <c r="DP21" s="70"/>
+      <c r="DQ21" s="70"/>
+      <c r="DR21" s="98"/>
       <c r="DS21" s="31"/>
-      <c r="DT21" s="65"/>
-      <c r="DU21" s="66"/>
-      <c r="DV21" s="66"/>
-      <c r="DW21" s="66"/>
-      <c r="DX21" s="66"/>
-      <c r="DY21" s="66"/>
-      <c r="DZ21" s="66"/>
-      <c r="EA21" s="66"/>
-      <c r="EB21" s="66"/>
-      <c r="EC21" s="66"/>
-    </row>
-    <row r="22" spans="1:137" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="102"/>
-      <c r="B22" s="103"/>
+      <c r="DT21" s="86"/>
+      <c r="DU21" s="87"/>
+      <c r="DV21" s="87"/>
+      <c r="DW21" s="87"/>
+      <c r="DX21" s="87"/>
+      <c r="DY21" s="87"/>
+      <c r="DZ21" s="87"/>
+      <c r="EA21" s="87"/>
+      <c r="EB21" s="87"/>
+      <c r="EC21" s="87"/>
+    </row>
+    <row r="22" spans="1:137" ht="13.8" thickBot="1">
+      <c r="A22" s="67"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="33">
         <v>1</v>
       </c>
@@ -3915,7 +4257,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:137" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:137">
       <c r="A23" s="21"/>
       <c r="B23" s="22"/>
       <c r="O23" s="28"/>
@@ -3943,11 +4285,11 @@
       <c r="BU23" s="25"/>
       <c r="BV23" s="25"/>
     </row>
-    <row r="24" spans="1:137" x14ac:dyDescent="0.15">
-      <c r="A24" s="85" t="s">
+    <row r="24" spans="1:137">
+      <c r="A24" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="86"/>
+      <c r="B24" s="60"/>
       <c r="AZ24" s="25"/>
       <c r="BA24" s="25"/>
       <c r="BB24" s="25"/>
@@ -3972,11 +4314,11 @@
       <c r="BU24" s="25"/>
       <c r="BV24" s="25"/>
     </row>
-    <row r="25" spans="1:137" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="96" t="s">
+    <row r="25" spans="1:137" ht="13.8" thickBot="1">
+      <c r="A25" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="97"/>
+      <c r="B25" s="62"/>
       <c r="AZ25" s="25"/>
       <c r="BA25" s="25"/>
       <c r="BB25" s="25"/>
@@ -4001,9 +4343,11 @@
       <c r="BU25" s="25"/>
       <c r="BV25" s="25"/>
     </row>
-    <row r="26" spans="1:137" x14ac:dyDescent="0.15">
-      <c r="A26" s="94"/>
-      <c r="B26" s="95"/>
+    <row r="26" spans="1:137" ht="13.5">
+      <c r="A26" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="58"/>
       <c r="P26" s="29"/>
       <c r="AZ26" s="25"/>
       <c r="BA26" s="25"/>
@@ -4029,9 +4373,11 @@
       <c r="BU26" s="25"/>
       <c r="BV26" s="25"/>
     </row>
-    <row r="27" spans="1:137" x14ac:dyDescent="0.15">
-      <c r="A27" s="54"/>
-      <c r="B27" s="55"/>
+    <row r="27" spans="1:137">
+      <c r="A27" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="56"/>
       <c r="P27" s="29"/>
       <c r="AZ27" s="25"/>
       <c r="BA27" s="25"/>
@@ -4057,9 +4403,11 @@
       <c r="BU27" s="25"/>
       <c r="BV27" s="25"/>
     </row>
-    <row r="28" spans="1:137" x14ac:dyDescent="0.15">
-      <c r="A28" s="52"/>
-      <c r="B28" s="53"/>
+    <row r="28" spans="1:137">
+      <c r="A28" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="56"/>
       <c r="P28" s="29"/>
       <c r="AZ28" s="25"/>
       <c r="BA28" s="25"/>
@@ -4085,9 +4433,11 @@
       <c r="BU28" s="25"/>
       <c r="BV28" s="25"/>
     </row>
-    <row r="29" spans="1:137" x14ac:dyDescent="0.15">
-      <c r="A29" s="52"/>
-      <c r="B29" s="53"/>
+    <row r="29" spans="1:137">
+      <c r="A29" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="56"/>
       <c r="P29" s="29"/>
       <c r="AG29" s="26"/>
       <c r="AJ29" s="26"/>
@@ -4115,9 +4465,11 @@
       <c r="BU29" s="25"/>
       <c r="BV29" s="25"/>
     </row>
-    <row r="30" spans="1:137" x14ac:dyDescent="0.15">
-      <c r="A30" s="37"/>
-      <c r="B30" s="38"/>
+    <row r="30" spans="1:137">
+      <c r="A30" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="56"/>
       <c r="P30" s="29"/>
       <c r="AG30" s="26"/>
       <c r="AJ30" s="26"/>
@@ -4145,9 +4497,11 @@
       <c r="BU30" s="25"/>
       <c r="BV30" s="25"/>
     </row>
-    <row r="31" spans="1:137" x14ac:dyDescent="0.15">
-      <c r="A31" s="54"/>
-      <c r="B31" s="55"/>
+    <row r="31" spans="1:137">
+      <c r="A31" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="56"/>
       <c r="AZ31" s="25"/>
       <c r="BA31" s="25"/>
       <c r="BB31" s="25"/>
@@ -4172,9 +4526,11 @@
       <c r="BU31" s="25"/>
       <c r="BV31" s="25"/>
     </row>
-    <row r="32" spans="1:137" x14ac:dyDescent="0.15">
-      <c r="A32" s="39"/>
-      <c r="B32" s="38"/>
+    <row r="32" spans="1:137">
+      <c r="A32" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="56"/>
       <c r="P32" s="29"/>
       <c r="AZ32" s="25"/>
       <c r="BA32" s="25"/>
@@ -4200,14 +4556,18 @@
       <c r="BU32" s="25"/>
       <c r="BV32" s="25"/>
     </row>
-    <row r="33" spans="1:74" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="105"/>
-      <c r="B33" s="106"/>
+    <row r="33" spans="1:74" s="27" customFormat="1">
+      <c r="A33" s="99" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="100"/>
       <c r="P33" s="29"/>
     </row>
-    <row r="34" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A34" s="52"/>
-      <c r="B34" s="53"/>
+    <row r="34" spans="1:74" ht="13.5">
+      <c r="A34" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="56"/>
       <c r="P34" s="29"/>
       <c r="AZ34" s="25"/>
       <c r="BA34" s="25"/>
@@ -4233,9 +4593,11 @@
       <c r="BU34" s="25"/>
       <c r="BV34" s="25"/>
     </row>
-    <row r="35" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A35" s="54"/>
-      <c r="B35" s="55"/>
+    <row r="35" spans="1:74">
+      <c r="A35" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="56"/>
       <c r="P35" s="29"/>
       <c r="AZ35" s="25"/>
       <c r="BA35" s="25"/>
@@ -4261,9 +4623,11 @@
       <c r="BU35" s="25"/>
       <c r="BV35" s="25"/>
     </row>
-    <row r="36" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A36" s="39"/>
-      <c r="B36" s="38"/>
+    <row r="36" spans="1:74">
+      <c r="A36" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="37"/>
       <c r="P36" s="29"/>
       <c r="AZ36" s="25"/>
       <c r="BA36" s="25"/>
@@ -4289,10 +4653,12 @@
       <c r="BU36" s="25"/>
       <c r="BV36" s="25"/>
     </row>
-    <row r="37" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A37" s="107"/>
-      <c r="B37" s="107"/>
-      <c r="C37" s="44"/>
+    <row r="37" spans="1:74">
+      <c r="A37" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="101"/>
+      <c r="C37" s="41"/>
       <c r="P37" s="29"/>
       <c r="AZ37" s="25"/>
       <c r="BA37" s="25"/>
@@ -4318,9 +4684,11 @@
       <c r="BU37" s="25"/>
       <c r="BV37" s="25"/>
     </row>
-    <row r="38" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A38" s="39"/>
-      <c r="B38" s="38"/>
+    <row r="38" spans="1:74">
+      <c r="A38" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="52"/>
       <c r="P38" s="29"/>
       <c r="AZ38" s="25"/>
       <c r="BA38" s="25"/>
@@ -4346,9 +4714,11 @@
       <c r="BU38" s="25"/>
       <c r="BV38" s="25"/>
     </row>
-    <row r="39" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A39" s="54"/>
-      <c r="B39" s="55"/>
+    <row r="39" spans="1:74">
+      <c r="A39" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="56"/>
       <c r="P39" s="29"/>
       <c r="AZ39" s="25"/>
       <c r="BA39" s="25"/>
@@ -4374,9 +4744,11 @@
       <c r="BU39" s="25"/>
       <c r="BV39" s="25"/>
     </row>
-    <row r="40" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A40" s="52"/>
-      <c r="B40" s="53"/>
+    <row r="40" spans="1:74">
+      <c r="A40" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="50"/>
       <c r="P40" s="29"/>
       <c r="AZ40" s="25"/>
       <c r="BA40" s="25"/>
@@ -4402,9 +4774,11 @@
       <c r="BU40" s="25"/>
       <c r="BV40" s="25"/>
     </row>
-    <row r="41" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A41" s="54"/>
-      <c r="B41" s="55"/>
+    <row r="41" spans="1:74">
+      <c r="A41" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="56"/>
       <c r="P41" s="29"/>
       <c r="AZ41" s="25"/>
       <c r="BA41" s="25"/>
@@ -4430,9 +4804,11 @@
       <c r="BU41" s="25"/>
       <c r="BV41" s="25"/>
     </row>
-    <row r="42" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A42" s="39"/>
-      <c r="B42" s="38"/>
+    <row r="42" spans="1:74">
+      <c r="A42" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="54"/>
       <c r="P42" s="29"/>
       <c r="AZ42" s="25"/>
       <c r="BA42" s="25"/>
@@ -4458,9 +4834,11 @@
       <c r="BU42" s="25"/>
       <c r="BV42" s="25"/>
     </row>
-    <row r="43" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A43" s="39"/>
-      <c r="B43" s="38"/>
+    <row r="43" spans="1:74">
+      <c r="A43" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="56"/>
       <c r="P43" s="29"/>
       <c r="AZ43" s="25"/>
       <c r="BA43" s="25"/>
@@ -4486,9 +4864,11 @@
       <c r="BU43" s="25"/>
       <c r="BV43" s="25"/>
     </row>
-    <row r="44" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A44" s="39"/>
-      <c r="B44" s="38"/>
+    <row r="44" spans="1:74">
+      <c r="A44" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="37"/>
       <c r="P44" s="29"/>
       <c r="AZ44" s="25"/>
       <c r="BA44" s="25"/>
@@ -4514,9 +4894,11 @@
       <c r="BU44" s="25"/>
       <c r="BV44" s="25"/>
     </row>
-    <row r="45" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A45" s="54"/>
-      <c r="B45" s="55"/>
+    <row r="45" spans="1:74">
+      <c r="A45" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="56"/>
       <c r="P45" s="29"/>
       <c r="AZ45" s="25"/>
       <c r="BA45" s="25"/>
@@ -4542,9 +4924,11 @@
       <c r="BU45" s="25"/>
       <c r="BV45" s="25"/>
     </row>
-    <row r="46" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A46" s="108"/>
-      <c r="B46" s="109"/>
+    <row r="46" spans="1:74">
+      <c r="A46" s="103" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="102"/>
       <c r="AZ46" s="25"/>
       <c r="BA46" s="25"/>
       <c r="BB46" s="25"/>
@@ -4569,9 +4953,11 @@
       <c r="BU46" s="25"/>
       <c r="BV46" s="25"/>
     </row>
-    <row r="47" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A47" s="61"/>
-      <c r="B47" s="62"/>
+    <row r="47" spans="1:74">
+      <c r="A47" s="105" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="104"/>
       <c r="AZ47" s="25"/>
       <c r="BA47" s="25"/>
       <c r="BB47" s="25"/>
@@ -4596,9 +4982,11 @@
       <c r="BU47" s="25"/>
       <c r="BV47" s="25"/>
     </row>
-    <row r="48" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A48" s="54"/>
-      <c r="B48" s="55"/>
+    <row r="48" spans="1:74">
+      <c r="A48" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="56"/>
       <c r="AZ48" s="25"/>
       <c r="BA48" s="25"/>
       <c r="BB48" s="25"/>
@@ -4623,9 +5011,11 @@
       <c r="BU48" s="25"/>
       <c r="BV48" s="25"/>
     </row>
-    <row r="49" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A49" s="52"/>
-      <c r="B49" s="53"/>
+    <row r="49" spans="1:74">
+      <c r="A49" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="56"/>
       <c r="AZ49" s="25"/>
       <c r="BA49" s="25"/>
       <c r="BB49" s="25"/>
@@ -4650,9 +5040,11 @@
       <c r="BU49" s="25"/>
       <c r="BV49" s="25"/>
     </row>
-    <row r="50" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A50" s="54"/>
-      <c r="B50" s="55"/>
+    <row r="50" spans="1:74">
+      <c r="A50" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="56"/>
       <c r="AZ50" s="25"/>
       <c r="BA50" s="25"/>
       <c r="BB50" s="25"/>
@@ -4677,9 +5069,9 @@
       <c r="BU50" s="25"/>
       <c r="BV50" s="25"/>
     </row>
-    <row r="51" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A51" s="52"/>
-      <c r="B51" s="53"/>
+    <row r="51" spans="1:74">
+      <c r="A51" s="51"/>
+      <c r="B51" s="52"/>
       <c r="AZ51" s="25"/>
       <c r="BA51" s="25"/>
       <c r="BB51" s="25"/>
@@ -4704,9 +5096,11 @@
       <c r="BU51" s="25"/>
       <c r="BV51" s="25"/>
     </row>
-    <row r="52" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A52" s="57"/>
-      <c r="B52" s="58"/>
+    <row r="52" spans="1:74">
+      <c r="A52" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="52"/>
       <c r="AZ52" s="25"/>
       <c r="BA52" s="25"/>
       <c r="BB52" s="25"/>
@@ -4731,9 +5125,11 @@
       <c r="BU52" s="25"/>
       <c r="BV52" s="25"/>
     </row>
-    <row r="53" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A53" s="54"/>
-      <c r="B53" s="55"/>
+    <row r="53" spans="1:74">
+      <c r="A53" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="56"/>
       <c r="AZ53" s="25"/>
       <c r="BA53" s="25"/>
       <c r="BB53" s="25"/>
@@ -4758,9 +5154,11 @@
       <c r="BU53" s="25"/>
       <c r="BV53" s="25"/>
     </row>
-    <row r="54" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A54" s="39"/>
-      <c r="B54" s="40"/>
+    <row r="54" spans="1:74">
+      <c r="A54" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="56"/>
       <c r="AZ54" s="25"/>
       <c r="BA54" s="25"/>
       <c r="BB54" s="25"/>
@@ -4785,9 +5183,11 @@
       <c r="BU54" s="25"/>
       <c r="BV54" s="25"/>
     </row>
-    <row r="55" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A55" s="39"/>
-      <c r="B55" s="40"/>
+    <row r="55" spans="1:74">
+      <c r="A55" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="56"/>
       <c r="AZ55" s="25"/>
       <c r="BA55" s="25"/>
       <c r="BB55" s="25"/>
@@ -4812,9 +5212,11 @@
       <c r="BU55" s="25"/>
       <c r="BV55" s="25"/>
     </row>
-    <row r="56" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A56" s="59"/>
-      <c r="B56" s="60"/>
+    <row r="56" spans="1:74">
+      <c r="A56" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="56"/>
       <c r="AZ56" s="25"/>
       <c r="BA56" s="25"/>
       <c r="BB56" s="25"/>
@@ -4839,9 +5241,11 @@
       <c r="BU56" s="25"/>
       <c r="BV56" s="25"/>
     </row>
-    <row r="57" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A57" s="54"/>
-      <c r="B57" s="55"/>
+    <row r="57" spans="1:74">
+      <c r="A57" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="56"/>
       <c r="AZ57" s="25"/>
       <c r="BA57" s="25"/>
       <c r="BB57" s="25"/>
@@ -4866,9 +5270,9 @@
       <c r="BU57" s="25"/>
       <c r="BV57" s="25"/>
     </row>
-    <row r="58" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A58" s="39"/>
-      <c r="B58" s="38"/>
+    <row r="58" spans="1:74">
+      <c r="A58" s="38"/>
+      <c r="B58" s="37"/>
       <c r="AZ58" s="25"/>
       <c r="BA58" s="25"/>
       <c r="BB58" s="25"/>
@@ -4893,9 +5297,8 @@
       <c r="BU58" s="25"/>
       <c r="BV58" s="25"/>
     </row>
-    <row r="59" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A59" s="54"/>
-      <c r="B59" s="55"/>
+    <row r="59" spans="1:74">
+      <c r="B59" s="52"/>
       <c r="AZ59" s="25"/>
       <c r="BA59" s="25"/>
       <c r="BB59" s="25"/>
@@ -4920,9 +5323,11 @@
       <c r="BU59" s="25"/>
       <c r="BV59" s="25"/>
     </row>
-    <row r="60" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A60" s="56"/>
-      <c r="B60" s="53"/>
+    <row r="60" spans="1:74">
+      <c r="A60" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="87"/>
       <c r="AZ60" s="25"/>
       <c r="BA60" s="25"/>
       <c r="BB60" s="25"/>
@@ -4947,9 +5352,10 @@
       <c r="BU60" s="25"/>
       <c r="BV60" s="25"/>
     </row>
-    <row r="61" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A61" s="52"/>
-      <c r="B61" s="53"/>
+    <row r="61" spans="1:74">
+      <c r="A61" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="AZ61" s="25"/>
       <c r="BA61" s="25"/>
       <c r="BB61" s="25"/>
@@ -4974,9 +5380,11 @@
       <c r="BU61" s="25"/>
       <c r="BV61" s="25"/>
     </row>
-    <row r="62" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A62" s="3"/>
-      <c r="B62" s="41"/>
+    <row r="62" spans="1:74">
+      <c r="A62" s="103" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="107"/>
       <c r="AZ62" s="25"/>
       <c r="BA62" s="25"/>
       <c r="BB62" s="25"/>
@@ -5001,9 +5409,11 @@
       <c r="BU62" s="25"/>
       <c r="BV62" s="25"/>
     </row>
-    <row r="63" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A63" s="3"/>
-      <c r="B63" s="41"/>
+    <row r="63" spans="1:74">
+      <c r="A63" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" s="56"/>
       <c r="AZ63" s="25"/>
       <c r="BA63" s="25"/>
       <c r="BB63" s="25"/>
@@ -5028,9 +5438,11 @@
       <c r="BU63" s="25"/>
       <c r="BV63" s="25"/>
     </row>
-    <row r="64" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A64" s="52"/>
-      <c r="B64" s="53"/>
+    <row r="64" spans="1:74">
+      <c r="A64" s="106" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" s="106"/>
       <c r="AZ64" s="25"/>
       <c r="BA64" s="25"/>
       <c r="BB64" s="25"/>
@@ -5055,9 +5467,11 @@
       <c r="BU64" s="25"/>
       <c r="BV64" s="25"/>
     </row>
-    <row r="65" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A65" s="110"/>
-      <c r="B65" s="111"/>
+    <row r="65" spans="1:74">
+      <c r="A65" s="106" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="106"/>
       <c r="AZ65" s="25"/>
       <c r="BA65" s="25"/>
       <c r="BB65" s="25"/>
@@ -5082,9 +5496,7 @@
       <c r="BU65" s="25"/>
       <c r="BV65" s="25"/>
     </row>
-    <row r="66" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A66" s="110"/>
-      <c r="B66" s="111"/>
+    <row r="66" spans="1:74">
       <c r="AZ66" s="25"/>
       <c r="BA66" s="25"/>
       <c r="BB66" s="25"/>
@@ -5109,9 +5521,10 @@
       <c r="BU66" s="25"/>
       <c r="BV66" s="25"/>
     </row>
-    <row r="67" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A67" s="54"/>
-      <c r="B67" s="55"/>
+    <row r="67" spans="1:74">
+      <c r="A67" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="AZ67" s="25"/>
       <c r="BA67" s="25"/>
       <c r="BB67" s="25"/>
@@ -5136,9 +5549,11 @@
       <c r="BU67" s="25"/>
       <c r="BV67" s="25"/>
     </row>
-    <row r="68" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A68" s="110"/>
-      <c r="B68" s="111"/>
+    <row r="68" spans="1:74">
+      <c r="A68" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" s="56"/>
       <c r="AZ68" s="25"/>
       <c r="BA68" s="25"/>
       <c r="BB68" s="25"/>
@@ -5163,9 +5578,11 @@
       <c r="BU68" s="25"/>
       <c r="BV68" s="25"/>
     </row>
-    <row r="69" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A69" s="52"/>
-      <c r="B69" s="53"/>
+    <row r="69" spans="1:74">
+      <c r="A69" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" s="56"/>
       <c r="AZ69" s="25"/>
       <c r="BA69" s="25"/>
       <c r="BB69" s="25"/>
@@ -5190,9 +5607,11 @@
       <c r="BU69" s="25"/>
       <c r="BV69" s="25"/>
     </row>
-    <row r="70" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A70" s="42"/>
-      <c r="B70" s="43"/>
+    <row r="70" spans="1:74">
+      <c r="A70" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" s="56"/>
       <c r="AZ70" s="25"/>
       <c r="BA70" s="25"/>
       <c r="BB70" s="25"/>
@@ -5217,9 +5636,11 @@
       <c r="BU70" s="25"/>
       <c r="BV70" s="25"/>
     </row>
-    <row r="71" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A71" s="59"/>
-      <c r="B71" s="60"/>
+    <row r="71" spans="1:74">
+      <c r="A71" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71" s="56"/>
       <c r="AZ71" s="25"/>
       <c r="BA71" s="25"/>
       <c r="BB71" s="25"/>
@@ -5244,9 +5665,11 @@
       <c r="BU71" s="25"/>
       <c r="BV71" s="25"/>
     </row>
-    <row r="72" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A72" s="59"/>
-      <c r="B72" s="60"/>
+    <row r="72" spans="1:74">
+      <c r="A72" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" s="56"/>
       <c r="AZ72" s="25"/>
       <c r="BA72" s="25"/>
       <c r="BB72" s="25"/>
@@ -5271,9 +5694,11 @@
       <c r="BU72" s="25"/>
       <c r="BV72" s="25"/>
     </row>
-    <row r="73" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A73" s="59"/>
-      <c r="B73" s="60"/>
+    <row r="73" spans="1:74">
+      <c r="A73" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" s="56"/>
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
       <c r="BB73" s="25"/>
@@ -5298,9 +5723,11 @@
       <c r="BU73" s="25"/>
       <c r="BV73" s="25"/>
     </row>
-    <row r="74" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A74" s="59"/>
-      <c r="B74" s="60"/>
+    <row r="74" spans="1:74">
+      <c r="A74" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" s="56"/>
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
       <c r="BB74" s="25"/>
@@ -5325,9 +5752,11 @@
       <c r="BU74" s="25"/>
       <c r="BV74" s="25"/>
     </row>
-    <row r="75" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A75" s="59"/>
-      <c r="B75" s="60"/>
+    <row r="75" spans="1:74">
+      <c r="A75" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" s="56"/>
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
       <c r="BB75" s="25"/>
@@ -5352,9 +5781,11 @@
       <c r="BU75" s="25"/>
       <c r="BV75" s="25"/>
     </row>
-    <row r="76" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A76" s="54"/>
-      <c r="B76" s="55"/>
+    <row r="76" spans="1:74">
+      <c r="A76" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76" s="56"/>
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
       <c r="BB76" s="25"/>
@@ -5379,9 +5810,11 @@
       <c r="BU76" s="25"/>
       <c r="BV76" s="25"/>
     </row>
-    <row r="77" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A77" s="42"/>
-      <c r="B77" s="43"/>
+    <row r="77" spans="1:74">
+      <c r="A77" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77" s="56"/>
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
       <c r="BB77" s="25"/>
@@ -5406,9 +5839,11 @@
       <c r="BU77" s="25"/>
       <c r="BV77" s="25"/>
     </row>
-    <row r="78" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A78" s="42"/>
-      <c r="B78" s="43"/>
+    <row r="78" spans="1:74">
+      <c r="A78" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B78" s="56"/>
       <c r="AZ78" s="25"/>
       <c r="BA78" s="25"/>
       <c r="BB78" s="25"/>
@@ -5433,9 +5868,11 @@
       <c r="BU78" s="25"/>
       <c r="BV78" s="25"/>
     </row>
-    <row r="79" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A79" s="42"/>
-      <c r="B79" s="43"/>
+    <row r="79" spans="1:74">
+      <c r="A79" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B79" s="56"/>
       <c r="AZ79" s="25"/>
       <c r="BA79" s="25"/>
       <c r="BB79" s="25"/>
@@ -5460,9 +5897,8 @@
       <c r="BU79" s="25"/>
       <c r="BV79" s="25"/>
     </row>
-    <row r="80" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A80" s="42"/>
-      <c r="B80" s="43"/>
+    <row r="80" spans="1:74">
+      <c r="B80" s="40"/>
       <c r="AZ80" s="25"/>
       <c r="BA80" s="25"/>
       <c r="BB80" s="25"/>
@@ -5487,9 +5923,11 @@
       <c r="BU80" s="25"/>
       <c r="BV80" s="25"/>
     </row>
-    <row r="81" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A81" s="42"/>
-      <c r="B81" s="43"/>
+    <row r="81" spans="1:74">
+      <c r="A81" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="40"/>
       <c r="AZ81" s="25"/>
       <c r="BA81" s="25"/>
       <c r="BB81" s="25"/>
@@ -5514,9 +5952,11 @@
       <c r="BU81" s="25"/>
       <c r="BV81" s="25"/>
     </row>
-    <row r="82" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A82" s="42"/>
-      <c r="B82" s="43"/>
+    <row r="82" spans="1:74">
+      <c r="A82" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B82" s="56"/>
       <c r="AZ82" s="25"/>
       <c r="BA82" s="25"/>
       <c r="BB82" s="25"/>
@@ -5541,9 +5981,11 @@
       <c r="BU82" s="25"/>
       <c r="BV82" s="25"/>
     </row>
-    <row r="83" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A83" s="42"/>
-      <c r="B83" s="43"/>
+    <row r="83" spans="1:74">
+      <c r="A83" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B83" s="56"/>
       <c r="AZ83" s="25"/>
       <c r="BA83" s="25"/>
       <c r="BB83" s="25"/>
@@ -5568,9 +6010,11 @@
       <c r="BU83" s="25"/>
       <c r="BV83" s="25"/>
     </row>
-    <row r="84" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A84" s="42"/>
-      <c r="B84" s="43"/>
+    <row r="84" spans="1:74">
+      <c r="A84" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="56"/>
       <c r="AZ84" s="25"/>
       <c r="BA84" s="25"/>
       <c r="BB84" s="25"/>
@@ -5595,9 +6039,11 @@
       <c r="BU84" s="25"/>
       <c r="BV84" s="25"/>
     </row>
-    <row r="85" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A85" s="42"/>
-      <c r="B85" s="43"/>
+    <row r="85" spans="1:74">
+      <c r="A85" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" s="56"/>
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
       <c r="BB85" s="25"/>
@@ -5622,9 +6068,11 @@
       <c r="BU85" s="25"/>
       <c r="BV85" s="25"/>
     </row>
-    <row r="86" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A86" s="42"/>
-      <c r="B86" s="43"/>
+    <row r="86" spans="1:74">
+      <c r="A86" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" s="56"/>
       <c r="AZ86" s="25"/>
       <c r="BA86" s="25"/>
       <c r="BB86" s="25"/>
@@ -5649,9 +6097,9 @@
       <c r="BU86" s="25"/>
       <c r="BV86" s="25"/>
     </row>
-    <row r="87" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A87" s="42"/>
-      <c r="B87" s="43"/>
+    <row r="87" spans="1:74">
+      <c r="A87" s="39"/>
+      <c r="B87" s="40"/>
       <c r="AZ87" s="25"/>
       <c r="BA87" s="25"/>
       <c r="BB87" s="25"/>
@@ -5676,9 +6124,9 @@
       <c r="BU87" s="25"/>
       <c r="BV87" s="25"/>
     </row>
-    <row r="88" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A88" s="42"/>
-      <c r="B88" s="43"/>
+    <row r="88" spans="1:74">
+      <c r="A88" s="39"/>
+      <c r="B88" s="40"/>
       <c r="AZ88" s="25"/>
       <c r="BA88" s="25"/>
       <c r="BB88" s="25"/>
@@ -5703,9 +6151,9 @@
       <c r="BU88" s="25"/>
       <c r="BV88" s="25"/>
     </row>
-    <row r="89" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A89" s="42"/>
-      <c r="B89" s="43"/>
+    <row r="89" spans="1:74">
+      <c r="A89" s="39"/>
+      <c r="B89" s="40"/>
       <c r="AZ89" s="25"/>
       <c r="BA89" s="25"/>
       <c r="BB89" s="25"/>
@@ -5730,9 +6178,9 @@
       <c r="BU89" s="25"/>
       <c r="BV89" s="25"/>
     </row>
-    <row r="90" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A90" s="42"/>
-      <c r="B90" s="43"/>
+    <row r="90" spans="1:74">
+      <c r="A90" s="39"/>
+      <c r="B90" s="40"/>
       <c r="AZ90" s="25"/>
       <c r="BA90" s="25"/>
       <c r="BB90" s="25"/>
@@ -5757,9 +6205,9 @@
       <c r="BU90" s="25"/>
       <c r="BV90" s="25"/>
     </row>
-    <row r="91" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A91" s="42"/>
-      <c r="B91" s="43"/>
+    <row r="91" spans="1:74">
+      <c r="A91" s="39"/>
+      <c r="B91" s="40"/>
       <c r="AZ91" s="25"/>
       <c r="BA91" s="25"/>
       <c r="BB91" s="25"/>
@@ -5784,9 +6232,9 @@
       <c r="BU91" s="25"/>
       <c r="BV91" s="25"/>
     </row>
-    <row r="92" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A92" s="42"/>
-      <c r="B92" s="43"/>
+    <row r="92" spans="1:74">
+      <c r="A92" s="39"/>
+      <c r="B92" s="40"/>
       <c r="AZ92" s="25"/>
       <c r="BA92" s="25"/>
       <c r="BB92" s="25"/>
@@ -5811,9 +6259,9 @@
       <c r="BU92" s="25"/>
       <c r="BV92" s="25"/>
     </row>
-    <row r="93" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A93" s="42"/>
-      <c r="B93" s="43"/>
+    <row r="93" spans="1:74">
+      <c r="A93" s="39"/>
+      <c r="B93" s="40"/>
       <c r="AZ93" s="25"/>
       <c r="BA93" s="25"/>
       <c r="BB93" s="25"/>
@@ -5838,9 +6286,9 @@
       <c r="BU93" s="25"/>
       <c r="BV93" s="25"/>
     </row>
-    <row r="94" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A94" s="42"/>
-      <c r="B94" s="43"/>
+    <row r="94" spans="1:74">
+      <c r="A94" s="39"/>
+      <c r="B94" s="40"/>
       <c r="AZ94" s="25"/>
       <c r="BA94" s="25"/>
       <c r="BB94" s="25"/>
@@ -5865,9 +6313,9 @@
       <c r="BU94" s="25"/>
       <c r="BV94" s="25"/>
     </row>
-    <row r="95" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A95" s="42"/>
-      <c r="B95" s="43"/>
+    <row r="95" spans="1:74">
+      <c r="A95" s="39"/>
+      <c r="B95" s="40"/>
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
       <c r="BB95" s="25"/>
@@ -5892,9 +6340,9 @@
       <c r="BU95" s="25"/>
       <c r="BV95" s="25"/>
     </row>
-    <row r="96" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A96" s="42"/>
-      <c r="B96" s="43"/>
+    <row r="96" spans="1:74">
+      <c r="A96" s="39"/>
+      <c r="B96" s="40"/>
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
       <c r="BB96" s="25"/>
@@ -5919,9 +6367,9 @@
       <c r="BU96" s="25"/>
       <c r="BV96" s="25"/>
     </row>
-    <row r="97" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A97" s="42"/>
-      <c r="B97" s="43"/>
+    <row r="97" spans="1:74">
+      <c r="A97" s="39"/>
+      <c r="B97" s="40"/>
       <c r="AZ97" s="25"/>
       <c r="BA97" s="25"/>
       <c r="BB97" s="25"/>
@@ -5946,9 +6394,9 @@
       <c r="BU97" s="25"/>
       <c r="BV97" s="25"/>
     </row>
-    <row r="98" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A98" s="42"/>
-      <c r="B98" s="43"/>
+    <row r="98" spans="1:74">
+      <c r="A98" s="39"/>
+      <c r="B98" s="40"/>
       <c r="AZ98" s="25"/>
       <c r="BA98" s="25"/>
       <c r="BB98" s="25"/>
@@ -5973,9 +6421,9 @@
       <c r="BU98" s="25"/>
       <c r="BV98" s="25"/>
     </row>
-    <row r="99" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A99" s="42"/>
-      <c r="B99" s="43"/>
+    <row r="99" spans="1:74">
+      <c r="A99" s="39"/>
+      <c r="B99" s="40"/>
       <c r="AZ99" s="25"/>
       <c r="BA99" s="25"/>
       <c r="BB99" s="25"/>
@@ -6000,9 +6448,9 @@
       <c r="BU99" s="25"/>
       <c r="BV99" s="25"/>
     </row>
-    <row r="100" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A100" s="42"/>
-      <c r="B100" s="43"/>
+    <row r="100" spans="1:74">
+      <c r="A100" s="39"/>
+      <c r="B100" s="40"/>
       <c r="AZ100" s="25"/>
       <c r="BA100" s="25"/>
       <c r="BB100" s="25"/>
@@ -6027,9 +6475,9 @@
       <c r="BU100" s="25"/>
       <c r="BV100" s="25"/>
     </row>
-    <row r="101" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A101" s="42"/>
-      <c r="B101" s="43"/>
+    <row r="101" spans="1:74">
+      <c r="A101" s="39"/>
+      <c r="B101" s="40"/>
       <c r="AZ101" s="25"/>
       <c r="BA101" s="25"/>
       <c r="BB101" s="25"/>
@@ -6054,9 +6502,9 @@
       <c r="BU101" s="25"/>
       <c r="BV101" s="25"/>
     </row>
-    <row r="102" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A102" s="42"/>
-      <c r="B102" s="43"/>
+    <row r="102" spans="1:74">
+      <c r="A102" s="39"/>
+      <c r="B102" s="40"/>
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
       <c r="BB102" s="25"/>
@@ -6081,9 +6529,9 @@
       <c r="BU102" s="25"/>
       <c r="BV102" s="25"/>
     </row>
-    <row r="103" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A103" s="42"/>
-      <c r="B103" s="43"/>
+    <row r="103" spans="1:74">
+      <c r="A103" s="39"/>
+      <c r="B103" s="40"/>
       <c r="AZ103" s="25"/>
       <c r="BA103" s="25"/>
       <c r="BB103" s="25"/>
@@ -6108,9 +6556,9 @@
       <c r="BU103" s="25"/>
       <c r="BV103" s="25"/>
     </row>
-    <row r="104" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A104" s="42"/>
-      <c r="B104" s="43"/>
+    <row r="104" spans="1:74">
+      <c r="A104" s="39"/>
+      <c r="B104" s="40"/>
       <c r="AZ104" s="25"/>
       <c r="BA104" s="25"/>
       <c r="BB104" s="25"/>
@@ -6135,9 +6583,9 @@
       <c r="BU104" s="25"/>
       <c r="BV104" s="25"/>
     </row>
-    <row r="105" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A105" s="42"/>
-      <c r="B105" s="43"/>
+    <row r="105" spans="1:74">
+      <c r="A105" s="39"/>
+      <c r="B105" s="40"/>
       <c r="AZ105" s="25"/>
       <c r="BA105" s="25"/>
       <c r="BB105" s="25"/>
@@ -6162,9 +6610,9 @@
       <c r="BU105" s="25"/>
       <c r="BV105" s="25"/>
     </row>
-    <row r="106" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A106" s="42"/>
-      <c r="B106" s="43"/>
+    <row r="106" spans="1:74">
+      <c r="A106" s="39"/>
+      <c r="B106" s="40"/>
       <c r="AZ106" s="25"/>
       <c r="BA106" s="25"/>
       <c r="BB106" s="25"/>
@@ -6189,9 +6637,9 @@
       <c r="BU106" s="25"/>
       <c r="BV106" s="25"/>
     </row>
-    <row r="107" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A107" s="42"/>
-      <c r="B107" s="43"/>
+    <row r="107" spans="1:74">
+      <c r="A107" s="39"/>
+      <c r="B107" s="40"/>
       <c r="AZ107" s="25"/>
       <c r="BA107" s="25"/>
       <c r="BB107" s="25"/>
@@ -6216,9 +6664,9 @@
       <c r="BU107" s="25"/>
       <c r="BV107" s="25"/>
     </row>
-    <row r="108" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A108" s="42"/>
-      <c r="B108" s="43"/>
+    <row r="108" spans="1:74">
+      <c r="A108" s="39"/>
+      <c r="B108" s="40"/>
       <c r="AZ108" s="25"/>
       <c r="BA108" s="25"/>
       <c r="BB108" s="25"/>
@@ -6243,9 +6691,9 @@
       <c r="BU108" s="25"/>
       <c r="BV108" s="25"/>
     </row>
-    <row r="109" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A109" s="42"/>
-      <c r="B109" s="43"/>
+    <row r="109" spans="1:74">
+      <c r="A109" s="39"/>
+      <c r="B109" s="40"/>
       <c r="AZ109" s="25"/>
       <c r="BA109" s="25"/>
       <c r="BB109" s="25"/>
@@ -6270,9 +6718,9 @@
       <c r="BU109" s="25"/>
       <c r="BV109" s="25"/>
     </row>
-    <row r="110" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A110" s="42"/>
-      <c r="B110" s="43"/>
+    <row r="110" spans="1:74">
+      <c r="A110" s="39"/>
+      <c r="B110" s="40"/>
       <c r="AZ110" s="25"/>
       <c r="BA110" s="25"/>
       <c r="BB110" s="25"/>
@@ -6297,9 +6745,9 @@
       <c r="BU110" s="25"/>
       <c r="BV110" s="25"/>
     </row>
-    <row r="111" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A111" s="42"/>
-      <c r="B111" s="43"/>
+    <row r="111" spans="1:74">
+      <c r="A111" s="39"/>
+      <c r="B111" s="40"/>
       <c r="AZ111" s="25"/>
       <c r="BA111" s="25"/>
       <c r="BB111" s="25"/>
@@ -6324,9 +6772,9 @@
       <c r="BU111" s="25"/>
       <c r="BV111" s="25"/>
     </row>
-    <row r="112" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A112" s="42"/>
-      <c r="B112" s="43"/>
+    <row r="112" spans="1:74">
+      <c r="A112" s="39"/>
+      <c r="B112" s="40"/>
       <c r="AZ112" s="25"/>
       <c r="BA112" s="25"/>
       <c r="BB112" s="25"/>
@@ -6351,9 +6799,9 @@
       <c r="BU112" s="25"/>
       <c r="BV112" s="25"/>
     </row>
-    <row r="113" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A113" s="42"/>
-      <c r="B113" s="43"/>
+    <row r="113" spans="1:74">
+      <c r="A113" s="39"/>
+      <c r="B113" s="40"/>
       <c r="AZ113" s="25"/>
       <c r="BA113" s="25"/>
       <c r="BB113" s="25"/>
@@ -6378,9 +6826,9 @@
       <c r="BU113" s="25"/>
       <c r="BV113" s="25"/>
     </row>
-    <row r="114" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A114" s="42"/>
-      <c r="B114" s="43"/>
+    <row r="114" spans="1:74">
+      <c r="A114" s="39"/>
+      <c r="B114" s="40"/>
       <c r="AZ114" s="25"/>
       <c r="BA114" s="25"/>
       <c r="BB114" s="25"/>
@@ -6405,9 +6853,9 @@
       <c r="BU114" s="25"/>
       <c r="BV114" s="25"/>
     </row>
-    <row r="115" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A115" s="42"/>
-      <c r="B115" s="43"/>
+    <row r="115" spans="1:74">
+      <c r="A115" s="39"/>
+      <c r="B115" s="40"/>
       <c r="AZ115" s="25"/>
       <c r="BA115" s="25"/>
       <c r="BB115" s="25"/>
@@ -6432,9 +6880,9 @@
       <c r="BU115" s="25"/>
       <c r="BV115" s="25"/>
     </row>
-    <row r="116" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A116" s="42"/>
-      <c r="B116" s="43"/>
+    <row r="116" spans="1:74">
+      <c r="A116" s="39"/>
+      <c r="B116" s="40"/>
       <c r="AZ116" s="25"/>
       <c r="BA116" s="25"/>
       <c r="BB116" s="25"/>
@@ -6459,9 +6907,9 @@
       <c r="BU116" s="25"/>
       <c r="BV116" s="25"/>
     </row>
-    <row r="117" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A117" s="42"/>
-      <c r="B117" s="43"/>
+    <row r="117" spans="1:74">
+      <c r="A117" s="39"/>
+      <c r="B117" s="40"/>
       <c r="AZ117" s="25"/>
       <c r="BA117" s="25"/>
       <c r="BB117" s="25"/>
@@ -6486,9 +6934,9 @@
       <c r="BU117" s="25"/>
       <c r="BV117" s="25"/>
     </row>
-    <row r="118" spans="1:74" x14ac:dyDescent="0.15">
-      <c r="A118" s="42"/>
-      <c r="B118" s="43"/>
+    <row r="118" spans="1:74">
+      <c r="A118" s="39"/>
+      <c r="B118" s="40"/>
       <c r="AZ118" s="25"/>
       <c r="BA118" s="25"/>
       <c r="BB118" s="25"/>
@@ -6513,7 +6961,7 @@
       <c r="BU118" s="25"/>
       <c r="BV118" s="25"/>
     </row>
-    <row r="119" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:74">
       <c r="A119" s="23"/>
       <c r="B119" s="24"/>
       <c r="AZ119" s="25"/>
@@ -6540,7 +6988,7 @@
       <c r="BU119" s="25"/>
       <c r="BV119" s="25"/>
     </row>
-    <row r="120" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:74">
       <c r="A120" s="23"/>
       <c r="B120" s="24"/>
       <c r="AZ120" s="25"/>
@@ -6567,7 +7015,7 @@
       <c r="BU120" s="25"/>
       <c r="BV120" s="25"/>
     </row>
-    <row r="121" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:74">
       <c r="A121" s="23"/>
       <c r="B121" s="24"/>
       <c r="AZ121" s="25"/>
@@ -6594,7 +7042,7 @@
       <c r="BU121" s="25"/>
       <c r="BV121" s="25"/>
     </row>
-    <row r="122" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:74">
       <c r="A122" s="23"/>
       <c r="B122" s="24"/>
       <c r="AZ122" s="25"/>
@@ -6621,7 +7069,7 @@
       <c r="BU122" s="25"/>
       <c r="BV122" s="25"/>
     </row>
-    <row r="123" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:74">
       <c r="A123" s="23"/>
       <c r="B123" s="24"/>
       <c r="AZ123" s="25"/>
@@ -6648,7 +7096,7 @@
       <c r="BU123" s="25"/>
       <c r="BV123" s="25"/>
     </row>
-    <row r="124" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:74">
       <c r="A124" s="23"/>
       <c r="B124" s="24"/>
       <c r="AZ124" s="25"/>
@@ -6675,7 +7123,7 @@
       <c r="BU124" s="25"/>
       <c r="BV124" s="25"/>
     </row>
-    <row r="125" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:74">
       <c r="A125" s="23"/>
       <c r="B125" s="24"/>
       <c r="AZ125" s="25"/>
@@ -6702,7 +7150,7 @@
       <c r="BU125" s="25"/>
       <c r="BV125" s="25"/>
     </row>
-    <row r="126" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:74">
       <c r="A126" s="23"/>
       <c r="B126" s="24"/>
       <c r="AZ126" s="25"/>
@@ -6729,7 +7177,7 @@
       <c r="BU126" s="25"/>
       <c r="BV126" s="25"/>
     </row>
-    <row r="127" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:74">
       <c r="A127" s="23"/>
       <c r="B127" s="24"/>
       <c r="AZ127" s="25"/>
@@ -6756,7 +7204,7 @@
       <c r="BU127" s="25"/>
       <c r="BV127" s="25"/>
     </row>
-    <row r="128" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:74">
       <c r="A128" s="23"/>
       <c r="B128" s="24"/>
       <c r="AZ128" s="25"/>
@@ -6783,7 +7231,7 @@
       <c r="BU128" s="25"/>
       <c r="BV128" s="25"/>
     </row>
-    <row r="129" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:74">
       <c r="A129" s="23"/>
       <c r="B129" s="24"/>
       <c r="AZ129" s="25"/>
@@ -6810,7 +7258,7 @@
       <c r="BU129" s="25"/>
       <c r="BV129" s="25"/>
     </row>
-    <row r="130" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:74">
       <c r="A130" s="23"/>
       <c r="B130" s="24"/>
       <c r="AZ130" s="25"/>
@@ -6837,7 +7285,7 @@
       <c r="BU130" s="25"/>
       <c r="BV130" s="25"/>
     </row>
-    <row r="131" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:74">
       <c r="A131" s="23"/>
       <c r="B131" s="24"/>
       <c r="AZ131" s="25"/>
@@ -6864,7 +7312,7 @@
       <c r="BU131" s="25"/>
       <c r="BV131" s="25"/>
     </row>
-    <row r="132" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:74">
       <c r="A132" s="23"/>
       <c r="B132" s="24"/>
       <c r="AZ132" s="25"/>
@@ -6891,7 +7339,7 @@
       <c r="BU132" s="25"/>
       <c r="BV132" s="25"/>
     </row>
-    <row r="133" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:74">
       <c r="A133" s="23"/>
       <c r="B133" s="24"/>
       <c r="AZ133" s="25"/>
@@ -6918,7 +7366,7 @@
       <c r="BU133" s="25"/>
       <c r="BV133" s="25"/>
     </row>
-    <row r="134" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:74">
       <c r="A134" s="23"/>
       <c r="B134" s="24"/>
       <c r="AZ134" s="25"/>
@@ -6945,7 +7393,7 @@
       <c r="BU134" s="25"/>
       <c r="BV134" s="25"/>
     </row>
-    <row r="135" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:74">
       <c r="A135" s="23"/>
       <c r="B135" s="24"/>
       <c r="AZ135" s="25"/>
@@ -6972,7 +7420,7 @@
       <c r="BU135" s="25"/>
       <c r="BV135" s="25"/>
     </row>
-    <row r="136" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:74">
       <c r="A136" s="23"/>
       <c r="B136" s="24"/>
       <c r="AZ136" s="25"/>
@@ -6999,7 +7447,7 @@
       <c r="BU136" s="25"/>
       <c r="BV136" s="25"/>
     </row>
-    <row r="137" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:74">
       <c r="A137" s="23"/>
       <c r="B137" s="24"/>
       <c r="AZ137" s="25"/>
@@ -7026,7 +7474,7 @@
       <c r="BU137" s="25"/>
       <c r="BV137" s="25"/>
     </row>
-    <row r="138" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:74">
       <c r="A138" s="23"/>
       <c r="B138" s="24"/>
       <c r="AZ138" s="25"/>
@@ -7053,7 +7501,7 @@
       <c r="BU138" s="25"/>
       <c r="BV138" s="25"/>
     </row>
-    <row r="139" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:74">
       <c r="A139" s="23"/>
       <c r="B139" s="24"/>
       <c r="AZ139" s="25"/>
@@ -7080,7 +7528,7 @@
       <c r="BU139" s="25"/>
       <c r="BV139" s="25"/>
     </row>
-    <row r="140" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:74">
       <c r="A140" s="23"/>
       <c r="B140" s="24"/>
       <c r="AZ140" s="25"/>
@@ -7107,7 +7555,7 @@
       <c r="BU140" s="25"/>
       <c r="BV140" s="25"/>
     </row>
-    <row r="141" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:74">
       <c r="A141" s="23"/>
       <c r="B141" s="24"/>
       <c r="AZ141" s="25"/>
@@ -7134,7 +7582,7 @@
       <c r="BU141" s="25"/>
       <c r="BV141" s="25"/>
     </row>
-    <row r="142" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:74">
       <c r="A142" s="23"/>
       <c r="B142" s="24"/>
       <c r="AZ142" s="25"/>
@@ -7161,7 +7609,7 @@
       <c r="BU142" s="25"/>
       <c r="BV142" s="25"/>
     </row>
-    <row r="143" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:74">
       <c r="A143" s="23"/>
       <c r="B143" s="24"/>
       <c r="AZ143" s="25"/>
@@ -7188,7 +7636,7 @@
       <c r="BU143" s="25"/>
       <c r="BV143" s="25"/>
     </row>
-    <row r="144" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:74">
       <c r="A144" s="23"/>
       <c r="B144" s="24"/>
       <c r="AZ144" s="25"/>
@@ -7215,7 +7663,7 @@
       <c r="BU144" s="25"/>
       <c r="BV144" s="25"/>
     </row>
-    <row r="145" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:74">
       <c r="A145" s="23"/>
       <c r="B145" s="24"/>
       <c r="AZ145" s="25"/>
@@ -7242,7 +7690,7 @@
       <c r="BU145" s="25"/>
       <c r="BV145" s="25"/>
     </row>
-    <row r="146" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:74">
       <c r="A146" s="23"/>
       <c r="B146" s="24"/>
       <c r="AZ146" s="25"/>
@@ -7269,7 +7717,7 @@
       <c r="BU146" s="25"/>
       <c r="BV146" s="25"/>
     </row>
-    <row r="147" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:74">
       <c r="A147" s="23"/>
       <c r="B147" s="24"/>
       <c r="AZ147" s="25"/>
@@ -7296,7 +7744,7 @@
       <c r="BU147" s="25"/>
       <c r="BV147" s="25"/>
     </row>
-    <row r="148" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:74">
       <c r="A148" s="23"/>
       <c r="B148" s="24"/>
       <c r="AZ148" s="25"/>
@@ -7323,7 +7771,7 @@
       <c r="BU148" s="25"/>
       <c r="BV148" s="25"/>
     </row>
-    <row r="149" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:74">
       <c r="A149" s="23"/>
       <c r="B149" s="24"/>
       <c r="AZ149" s="25"/>
@@ -7350,7 +7798,7 @@
       <c r="BU149" s="25"/>
       <c r="BV149" s="25"/>
     </row>
-    <row r="150" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:74">
       <c r="A150" s="23"/>
       <c r="B150" s="24"/>
       <c r="AZ150" s="25"/>
@@ -7377,7 +7825,7 @@
       <c r="BU150" s="25"/>
       <c r="BV150" s="25"/>
     </row>
-    <row r="151" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:74">
       <c r="A151" s="23"/>
       <c r="B151" s="24"/>
       <c r="AZ151" s="25"/>
@@ -7404,7 +7852,7 @@
       <c r="BU151" s="25"/>
       <c r="BV151" s="25"/>
     </row>
-    <row r="152" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:74">
       <c r="A152" s="23"/>
       <c r="B152" s="24"/>
       <c r="AZ152" s="25"/>
@@ -7431,7 +7879,7 @@
       <c r="BU152" s="25"/>
       <c r="BV152" s="25"/>
     </row>
-    <row r="153" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:74">
       <c r="A153" s="23"/>
       <c r="B153" s="24"/>
       <c r="AZ153" s="25"/>
@@ -7458,7 +7906,7 @@
       <c r="BU153" s="25"/>
       <c r="BV153" s="25"/>
     </row>
-    <row r="154" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:74">
       <c r="A154" s="23"/>
       <c r="B154" s="24"/>
       <c r="AZ154" s="25"/>
@@ -7485,7 +7933,7 @@
       <c r="BU154" s="25"/>
       <c r="BV154" s="25"/>
     </row>
-    <row r="155" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:74">
       <c r="A155" s="23"/>
       <c r="B155" s="24"/>
       <c r="AZ155" s="25"/>
@@ -7512,7 +7960,7 @@
       <c r="BU155" s="25"/>
       <c r="BV155" s="25"/>
     </row>
-    <row r="156" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:74">
       <c r="A156" s="23"/>
       <c r="B156" s="24"/>
       <c r="AZ156" s="25"/>
@@ -7539,7 +7987,7 @@
       <c r="BU156" s="25"/>
       <c r="BV156" s="25"/>
     </row>
-    <row r="157" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:74">
       <c r="A157" s="23"/>
       <c r="B157" s="24"/>
       <c r="AZ157" s="25"/>
@@ -7566,7 +8014,7 @@
       <c r="BU157" s="25"/>
       <c r="BV157" s="25"/>
     </row>
-    <row r="158" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:74">
       <c r="A158" s="23"/>
       <c r="B158" s="24"/>
       <c r="AZ158" s="25"/>
@@ -7593,7 +8041,7 @@
       <c r="BU158" s="25"/>
       <c r="BV158" s="25"/>
     </row>
-    <row r="159" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:74">
       <c r="A159" s="23"/>
       <c r="B159" s="24"/>
       <c r="AZ159" s="25"/>
@@ -7620,7 +8068,7 @@
       <c r="BU159" s="25"/>
       <c r="BV159" s="25"/>
     </row>
-    <row r="160" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:74">
       <c r="A160" s="23"/>
       <c r="B160" s="24"/>
       <c r="AZ160" s="25"/>
@@ -7647,7 +8095,7 @@
       <c r="BU160" s="25"/>
       <c r="BV160" s="25"/>
     </row>
-    <row r="161" spans="1:74" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:74" ht="13.8" thickBot="1">
       <c r="A161" s="6"/>
       <c r="B161" s="7"/>
       <c r="AZ161" s="25"/>
@@ -7674,7 +8122,7 @@
       <c r="BU161" s="25"/>
       <c r="BV161" s="25"/>
     </row>
-    <row r="162" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:74">
       <c r="AZ162" s="25"/>
       <c r="BA162" s="25"/>
       <c r="BB162" s="25"/>
@@ -7699,7 +8147,7 @@
       <c r="BU162" s="25"/>
       <c r="BV162" s="25"/>
     </row>
-    <row r="163" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:74">
       <c r="AZ163" s="25"/>
       <c r="BA163" s="25"/>
       <c r="BB163" s="25"/>
@@ -7724,7 +8172,7 @@
       <c r="BU163" s="25"/>
       <c r="BV163" s="25"/>
     </row>
-    <row r="164" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:74">
       <c r="AZ164" s="25"/>
       <c r="BA164" s="25"/>
       <c r="BB164" s="25"/>
@@ -7749,7 +8197,7 @@
       <c r="BU164" s="25"/>
       <c r="BV164" s="25"/>
     </row>
-    <row r="165" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:74">
       <c r="AZ165" s="25"/>
       <c r="BA165" s="25"/>
       <c r="BB165" s="25"/>
@@ -7774,7 +8222,7 @@
       <c r="BU165" s="25"/>
       <c r="BV165" s="25"/>
     </row>
-    <row r="166" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:74">
       <c r="AZ166" s="25"/>
       <c r="BA166" s="25"/>
       <c r="BB166" s="25"/>
@@ -7799,7 +8247,7 @@
       <c r="BU166" s="25"/>
       <c r="BV166" s="25"/>
     </row>
-    <row r="167" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:74">
       <c r="AZ167" s="25"/>
       <c r="BA167" s="25"/>
       <c r="BB167" s="25"/>
@@ -7824,7 +8272,7 @@
       <c r="BU167" s="25"/>
       <c r="BV167" s="25"/>
     </row>
-    <row r="168" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:74">
       <c r="AZ168" s="25"/>
       <c r="BA168" s="25"/>
       <c r="BB168" s="25"/>
@@ -7849,7 +8297,7 @@
       <c r="BU168" s="25"/>
       <c r="BV168" s="25"/>
     </row>
-    <row r="169" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:74">
       <c r="AZ169" s="25"/>
       <c r="BA169" s="25"/>
       <c r="BB169" s="25"/>
@@ -7874,7 +8322,7 @@
       <c r="BU169" s="25"/>
       <c r="BV169" s="25"/>
     </row>
-    <row r="170" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:74">
       <c r="AZ170" s="25"/>
       <c r="BA170" s="25"/>
       <c r="BB170" s="25"/>
@@ -7899,7 +8347,7 @@
       <c r="BU170" s="25"/>
       <c r="BV170" s="25"/>
     </row>
-    <row r="171" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:74">
       <c r="AZ171" s="25"/>
       <c r="BA171" s="25"/>
       <c r="BB171" s="25"/>
@@ -7924,7 +8372,7 @@
       <c r="BU171" s="25"/>
       <c r="BV171" s="25"/>
     </row>
-    <row r="172" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:74">
       <c r="AZ172" s="25"/>
       <c r="BA172" s="25"/>
       <c r="BB172" s="25"/>
@@ -7949,7 +8397,7 @@
       <c r="BU172" s="25"/>
       <c r="BV172" s="25"/>
     </row>
-    <row r="173" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:74">
       <c r="AZ173" s="25"/>
       <c r="BA173" s="25"/>
       <c r="BB173" s="25"/>
@@ -7974,7 +8422,7 @@
       <c r="BU173" s="25"/>
       <c r="BV173" s="25"/>
     </row>
-    <row r="174" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:74">
       <c r="AZ174" s="25"/>
       <c r="BA174" s="25"/>
       <c r="BB174" s="25"/>
@@ -7999,7 +8447,7 @@
       <c r="BU174" s="25"/>
       <c r="BV174" s="25"/>
     </row>
-    <row r="175" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:74">
       <c r="AZ175" s="25"/>
       <c r="BA175" s="25"/>
       <c r="BB175" s="25"/>
@@ -8024,7 +8472,7 @@
       <c r="BU175" s="25"/>
       <c r="BV175" s="25"/>
     </row>
-    <row r="176" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:74">
       <c r="AZ176" s="25"/>
       <c r="BA176" s="25"/>
       <c r="BB176" s="25"/>
@@ -8049,7 +8497,7 @@
       <c r="BU176" s="25"/>
       <c r="BV176" s="25"/>
     </row>
-    <row r="177" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="177" spans="52:74">
       <c r="AZ177" s="25"/>
       <c r="BA177" s="25"/>
       <c r="BB177" s="25"/>
@@ -8074,7 +8522,7 @@
       <c r="BU177" s="25"/>
       <c r="BV177" s="25"/>
     </row>
-    <row r="178" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="178" spans="52:74">
       <c r="AZ178" s="25"/>
       <c r="BA178" s="25"/>
       <c r="BB178" s="25"/>
@@ -8099,7 +8547,7 @@
       <c r="BU178" s="25"/>
       <c r="BV178" s="25"/>
     </row>
-    <row r="179" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="179" spans="52:74">
       <c r="AZ179" s="25"/>
       <c r="BA179" s="25"/>
       <c r="BB179" s="25"/>
@@ -8124,7 +8572,7 @@
       <c r="BU179" s="25"/>
       <c r="BV179" s="25"/>
     </row>
-    <row r="180" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="180" spans="52:74">
       <c r="AZ180" s="25"/>
       <c r="BA180" s="25"/>
       <c r="BB180" s="25"/>
@@ -8149,7 +8597,7 @@
       <c r="BU180" s="25"/>
       <c r="BV180" s="25"/>
     </row>
-    <row r="181" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="181" spans="52:74">
       <c r="AZ181" s="25"/>
       <c r="BA181" s="25"/>
       <c r="BB181" s="25"/>
@@ -8174,7 +8622,7 @@
       <c r="BU181" s="25"/>
       <c r="BV181" s="25"/>
     </row>
-    <row r="182" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="182" spans="52:74">
       <c r="AZ182" s="25"/>
       <c r="BA182" s="25"/>
       <c r="BB182" s="25"/>
@@ -8199,7 +8647,7 @@
       <c r="BU182" s="25"/>
       <c r="BV182" s="25"/>
     </row>
-    <row r="183" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="183" spans="52:74">
       <c r="AZ183" s="25"/>
       <c r="BA183" s="25"/>
       <c r="BB183" s="25"/>
@@ -8224,7 +8672,7 @@
       <c r="BU183" s="25"/>
       <c r="BV183" s="25"/>
     </row>
-    <row r="184" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="184" spans="52:74">
       <c r="AZ184" s="25"/>
       <c r="BA184" s="25"/>
       <c r="BB184" s="25"/>
@@ -8249,7 +8697,7 @@
       <c r="BU184" s="25"/>
       <c r="BV184" s="25"/>
     </row>
-    <row r="185" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="185" spans="52:74">
       <c r="AZ185" s="25"/>
       <c r="BA185" s="25"/>
       <c r="BB185" s="25"/>
@@ -8274,7 +8722,7 @@
       <c r="BU185" s="25"/>
       <c r="BV185" s="25"/>
     </row>
-    <row r="186" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="186" spans="52:74">
       <c r="AZ186" s="25"/>
       <c r="BA186" s="25"/>
       <c r="BB186" s="25"/>
@@ -8299,7 +8747,7 @@
       <c r="BU186" s="25"/>
       <c r="BV186" s="25"/>
     </row>
-    <row r="187" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="187" spans="52:74">
       <c r="AZ187" s="25"/>
       <c r="BA187" s="25"/>
       <c r="BB187" s="25"/>
@@ -8324,7 +8772,7 @@
       <c r="BU187" s="25"/>
       <c r="BV187" s="25"/>
     </row>
-    <row r="188" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="188" spans="52:74">
       <c r="AZ188" s="25"/>
       <c r="BA188" s="25"/>
       <c r="BB188" s="25"/>
@@ -8349,7 +8797,7 @@
       <c r="BU188" s="25"/>
       <c r="BV188" s="25"/>
     </row>
-    <row r="189" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="189" spans="52:74">
       <c r="AZ189" s="25"/>
       <c r="BA189" s="25"/>
       <c r="BB189" s="25"/>
@@ -8374,7 +8822,7 @@
       <c r="BU189" s="25"/>
       <c r="BV189" s="25"/>
     </row>
-    <row r="190" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="190" spans="52:74">
       <c r="AZ190" s="25"/>
       <c r="BA190" s="25"/>
       <c r="BB190" s="25"/>
@@ -8399,7 +8847,7 @@
       <c r="BU190" s="25"/>
       <c r="BV190" s="25"/>
     </row>
-    <row r="191" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="191" spans="52:74">
       <c r="AZ191" s="25"/>
       <c r="BA191" s="25"/>
       <c r="BB191" s="25"/>
@@ -8424,7 +8872,7 @@
       <c r="BU191" s="25"/>
       <c r="BV191" s="25"/>
     </row>
-    <row r="192" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="192" spans="52:74">
       <c r="AZ192" s="25"/>
       <c r="BA192" s="25"/>
       <c r="BB192" s="25"/>
@@ -8449,7 +8897,7 @@
       <c r="BU192" s="25"/>
       <c r="BV192" s="25"/>
     </row>
-    <row r="193" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="193" spans="52:74">
       <c r="AZ193" s="25"/>
       <c r="BA193" s="25"/>
       <c r="BB193" s="25"/>
@@ -8474,7 +8922,7 @@
       <c r="BU193" s="25"/>
       <c r="BV193" s="25"/>
     </row>
-    <row r="194" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="194" spans="52:74">
       <c r="AZ194" s="25"/>
       <c r="BA194" s="25"/>
       <c r="BB194" s="25"/>
@@ -8499,7 +8947,7 @@
       <c r="BU194" s="25"/>
       <c r="BV194" s="25"/>
     </row>
-    <row r="195" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="195" spans="52:74">
       <c r="AZ195" s="25"/>
       <c r="BA195" s="25"/>
       <c r="BB195" s="25"/>
@@ -8524,7 +8972,7 @@
       <c r="BU195" s="25"/>
       <c r="BV195" s="25"/>
     </row>
-    <row r="196" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="196" spans="52:74">
       <c r="AZ196" s="25"/>
       <c r="BA196" s="25"/>
       <c r="BB196" s="25"/>
@@ -8549,7 +8997,7 @@
       <c r="BU196" s="25"/>
       <c r="BV196" s="25"/>
     </row>
-    <row r="197" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="197" spans="52:74">
       <c r="AZ197" s="25"/>
       <c r="BA197" s="25"/>
       <c r="BB197" s="25"/>
@@ -8574,7 +9022,7 @@
       <c r="BU197" s="25"/>
       <c r="BV197" s="25"/>
     </row>
-    <row r="198" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="198" spans="52:74">
       <c r="AZ198" s="25"/>
       <c r="BA198" s="25"/>
       <c r="BB198" s="25"/>
@@ -8599,7 +9047,7 @@
       <c r="BU198" s="25"/>
       <c r="BV198" s="25"/>
     </row>
-    <row r="199" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="199" spans="52:74">
       <c r="AZ199" s="25"/>
       <c r="BA199" s="25"/>
       <c r="BB199" s="25"/>
@@ -8624,7 +9072,7 @@
       <c r="BU199" s="25"/>
       <c r="BV199" s="25"/>
     </row>
-    <row r="200" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="200" spans="52:74">
       <c r="AZ200" s="25"/>
       <c r="BA200" s="25"/>
       <c r="BB200" s="25"/>
@@ -8649,7 +9097,7 @@
       <c r="BU200" s="25"/>
       <c r="BV200" s="25"/>
     </row>
-    <row r="201" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="201" spans="52:74">
       <c r="AZ201" s="25"/>
       <c r="BA201" s="25"/>
       <c r="BB201" s="25"/>
@@ -8674,7 +9122,7 @@
       <c r="BU201" s="25"/>
       <c r="BV201" s="25"/>
     </row>
-    <row r="202" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="202" spans="52:74">
       <c r="AZ202" s="25"/>
       <c r="BA202" s="25"/>
       <c r="BB202" s="25"/>
@@ -8699,7 +9147,7 @@
       <c r="BU202" s="25"/>
       <c r="BV202" s="25"/>
     </row>
-    <row r="203" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="203" spans="52:74">
       <c r="AZ203" s="25"/>
       <c r="BA203" s="25"/>
       <c r="BB203" s="25"/>
@@ -8724,7 +9172,7 @@
       <c r="BU203" s="25"/>
       <c r="BV203" s="25"/>
     </row>
-    <row r="204" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="204" spans="52:74">
       <c r="AZ204" s="25"/>
       <c r="BA204" s="25"/>
       <c r="BB204" s="25"/>
@@ -8749,7 +9197,7 @@
       <c r="BU204" s="25"/>
       <c r="BV204" s="25"/>
     </row>
-    <row r="205" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="205" spans="52:74">
       <c r="AZ205" s="25"/>
       <c r="BA205" s="25"/>
       <c r="BB205" s="25"/>
@@ -8774,7 +9222,7 @@
       <c r="BU205" s="25"/>
       <c r="BV205" s="25"/>
     </row>
-    <row r="206" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="206" spans="52:74">
       <c r="AZ206" s="25"/>
       <c r="BA206" s="25"/>
       <c r="BB206" s="25"/>
@@ -8799,7 +9247,7 @@
       <c r="BU206" s="25"/>
       <c r="BV206" s="25"/>
     </row>
-    <row r="207" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="207" spans="52:74">
       <c r="AZ207" s="25"/>
       <c r="BA207" s="25"/>
       <c r="BB207" s="25"/>
@@ -8824,7 +9272,7 @@
       <c r="BU207" s="25"/>
       <c r="BV207" s="25"/>
     </row>
-    <row r="208" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="208" spans="52:74">
       <c r="AZ208" s="25"/>
       <c r="BA208" s="25"/>
       <c r="BB208" s="25"/>
@@ -8849,7 +9297,7 @@
       <c r="BU208" s="25"/>
       <c r="BV208" s="25"/>
     </row>
-    <row r="209" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="209" spans="52:74">
       <c r="AZ209" s="25"/>
       <c r="BA209" s="25"/>
       <c r="BB209" s="25"/>
@@ -8874,7 +9322,7 @@
       <c r="BU209" s="25"/>
       <c r="BV209" s="25"/>
     </row>
-    <row r="210" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="210" spans="52:74">
       <c r="AZ210" s="25"/>
       <c r="BA210" s="25"/>
       <c r="BB210" s="25"/>
@@ -8899,7 +9347,7 @@
       <c r="BU210" s="25"/>
       <c r="BV210" s="25"/>
     </row>
-    <row r="211" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="211" spans="52:74">
       <c r="AZ211" s="25"/>
       <c r="BA211" s="25"/>
       <c r="BB211" s="25"/>
@@ -8924,7 +9372,7 @@
       <c r="BU211" s="25"/>
       <c r="BV211" s="25"/>
     </row>
-    <row r="212" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="212" spans="52:74">
       <c r="AZ212" s="25"/>
       <c r="BA212" s="25"/>
       <c r="BB212" s="25"/>
@@ -8949,7 +9397,7 @@
       <c r="BU212" s="25"/>
       <c r="BV212" s="25"/>
     </row>
-    <row r="213" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="213" spans="52:74">
       <c r="AZ213" s="25"/>
       <c r="BA213" s="25"/>
       <c r="BB213" s="25"/>
@@ -8974,7 +9422,7 @@
       <c r="BU213" s="25"/>
       <c r="BV213" s="25"/>
     </row>
-    <row r="214" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="214" spans="52:74">
       <c r="AZ214" s="25"/>
       <c r="BA214" s="25"/>
       <c r="BB214" s="25"/>
@@ -8999,7 +9447,7 @@
       <c r="BU214" s="25"/>
       <c r="BV214" s="25"/>
     </row>
-    <row r="215" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="215" spans="52:74">
       <c r="AZ215" s="25"/>
       <c r="BA215" s="25"/>
       <c r="BB215" s="25"/>
@@ -9024,7 +9472,7 @@
       <c r="BU215" s="25"/>
       <c r="BV215" s="25"/>
     </row>
-    <row r="216" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="216" spans="52:74">
       <c r="AZ216" s="25"/>
       <c r="BA216" s="25"/>
       <c r="BB216" s="25"/>
@@ -9049,7 +9497,7 @@
       <c r="BU216" s="25"/>
       <c r="BV216" s="25"/>
     </row>
-    <row r="217" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="217" spans="52:74">
       <c r="AZ217" s="25"/>
       <c r="BA217" s="25"/>
       <c r="BB217" s="25"/>
@@ -9074,7 +9522,7 @@
       <c r="BU217" s="25"/>
       <c r="BV217" s="25"/>
     </row>
-    <row r="218" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="218" spans="52:74">
       <c r="AZ218" s="25"/>
       <c r="BA218" s="25"/>
       <c r="BB218" s="25"/>
@@ -9099,7 +9547,7 @@
       <c r="BU218" s="25"/>
       <c r="BV218" s="25"/>
     </row>
-    <row r="219" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="219" spans="52:74">
       <c r="AZ219" s="25"/>
       <c r="BA219" s="25"/>
       <c r="BB219" s="25"/>
@@ -9124,7 +9572,7 @@
       <c r="BU219" s="25"/>
       <c r="BV219" s="25"/>
     </row>
-    <row r="220" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="220" spans="52:74">
       <c r="AZ220" s="25"/>
       <c r="BA220" s="25"/>
       <c r="BB220" s="25"/>
@@ -9149,7 +9597,7 @@
       <c r="BU220" s="25"/>
       <c r="BV220" s="25"/>
     </row>
-    <row r="221" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="221" spans="52:74">
       <c r="AZ221" s="25"/>
       <c r="BA221" s="25"/>
       <c r="BB221" s="25"/>
@@ -9174,7 +9622,7 @@
       <c r="BU221" s="25"/>
       <c r="BV221" s="25"/>
     </row>
-    <row r="222" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="222" spans="52:74">
       <c r="AZ222" s="25"/>
       <c r="BA222" s="25"/>
       <c r="BB222" s="25"/>
@@ -9199,7 +9647,7 @@
       <c r="BU222" s="25"/>
       <c r="BV222" s="25"/>
     </row>
-    <row r="223" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="223" spans="52:74">
       <c r="AZ223" s="25"/>
       <c r="BA223" s="25"/>
       <c r="BB223" s="25"/>
@@ -9224,7 +9672,7 @@
       <c r="BU223" s="25"/>
       <c r="BV223" s="25"/>
     </row>
-    <row r="224" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="224" spans="52:74">
       <c r="AZ224" s="25"/>
       <c r="BA224" s="25"/>
       <c r="BB224" s="25"/>
@@ -9249,7 +9697,7 @@
       <c r="BU224" s="25"/>
       <c r="BV224" s="25"/>
     </row>
-    <row r="225" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="225" spans="52:74">
       <c r="AZ225" s="25"/>
       <c r="BA225" s="25"/>
       <c r="BB225" s="25"/>
@@ -9274,7 +9722,7 @@
       <c r="BU225" s="25"/>
       <c r="BV225" s="25"/>
     </row>
-    <row r="226" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="226" spans="52:74">
       <c r="AZ226" s="25"/>
       <c r="BA226" s="25"/>
       <c r="BB226" s="25"/>
@@ -9299,7 +9747,7 @@
       <c r="BU226" s="25"/>
       <c r="BV226" s="25"/>
     </row>
-    <row r="227" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="227" spans="52:74">
       <c r="AZ227" s="25"/>
       <c r="BA227" s="25"/>
       <c r="BB227" s="25"/>
@@ -9324,7 +9772,7 @@
       <c r="BU227" s="25"/>
       <c r="BV227" s="25"/>
     </row>
-    <row r="228" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="228" spans="52:74">
       <c r="AZ228" s="25"/>
       <c r="BA228" s="25"/>
       <c r="BB228" s="25"/>
@@ -9349,7 +9797,7 @@
       <c r="BU228" s="25"/>
       <c r="BV228" s="25"/>
     </row>
-    <row r="229" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="229" spans="52:74">
       <c r="AZ229" s="25"/>
       <c r="BA229" s="25"/>
       <c r="BB229" s="25"/>
@@ -9374,7 +9822,7 @@
       <c r="BU229" s="25"/>
       <c r="BV229" s="25"/>
     </row>
-    <row r="230" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="230" spans="52:74">
       <c r="AZ230" s="25"/>
       <c r="BA230" s="25"/>
       <c r="BB230" s="25"/>
@@ -9399,7 +9847,7 @@
       <c r="BU230" s="25"/>
       <c r="BV230" s="25"/>
     </row>
-    <row r="231" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="231" spans="52:74">
       <c r="AZ231" s="25"/>
       <c r="BA231" s="25"/>
       <c r="BB231" s="25"/>
@@ -9424,7 +9872,7 @@
       <c r="BU231" s="25"/>
       <c r="BV231" s="25"/>
     </row>
-    <row r="232" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="232" spans="52:74">
       <c r="AZ232" s="25"/>
       <c r="BA232" s="25"/>
       <c r="BB232" s="25"/>
@@ -9449,7 +9897,7 @@
       <c r="BU232" s="25"/>
       <c r="BV232" s="25"/>
     </row>
-    <row r="233" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="233" spans="52:74">
       <c r="AZ233" s="25"/>
       <c r="BA233" s="25"/>
       <c r="BB233" s="25"/>
@@ -9474,7 +9922,7 @@
       <c r="BU233" s="25"/>
       <c r="BV233" s="25"/>
     </row>
-    <row r="234" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="234" spans="52:74">
       <c r="AZ234" s="25"/>
       <c r="BA234" s="25"/>
       <c r="BB234" s="25"/>
@@ -9499,7 +9947,7 @@
       <c r="BU234" s="25"/>
       <c r="BV234" s="25"/>
     </row>
-    <row r="235" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="235" spans="52:74">
       <c r="AZ235" s="25"/>
       <c r="BA235" s="25"/>
       <c r="BB235" s="25"/>
@@ -9524,7 +9972,7 @@
       <c r="BU235" s="25"/>
       <c r="BV235" s="25"/>
     </row>
-    <row r="236" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="236" spans="52:74">
       <c r="AZ236" s="25"/>
       <c r="BA236" s="25"/>
       <c r="BB236" s="25"/>
@@ -9549,7 +9997,7 @@
       <c r="BU236" s="25"/>
       <c r="BV236" s="25"/>
     </row>
-    <row r="237" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="237" spans="52:74">
       <c r="AZ237" s="25"/>
       <c r="BA237" s="25"/>
       <c r="BB237" s="25"/>
@@ -9574,7 +10022,7 @@
       <c r="BU237" s="25"/>
       <c r="BV237" s="25"/>
     </row>
-    <row r="238" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="238" spans="52:74">
       <c r="AZ238" s="25"/>
       <c r="BA238" s="25"/>
       <c r="BB238" s="25"/>
@@ -9599,7 +10047,7 @@
       <c r="BU238" s="25"/>
       <c r="BV238" s="25"/>
     </row>
-    <row r="239" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="239" spans="52:74">
       <c r="AZ239" s="25"/>
       <c r="BA239" s="25"/>
       <c r="BB239" s="25"/>
@@ -9624,7 +10072,7 @@
       <c r="BU239" s="25"/>
       <c r="BV239" s="25"/>
     </row>
-    <row r="240" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="240" spans="52:74">
       <c r="AZ240" s="25"/>
       <c r="BA240" s="25"/>
       <c r="BB240" s="25"/>
@@ -9649,7 +10097,7 @@
       <c r="BU240" s="25"/>
       <c r="BV240" s="25"/>
     </row>
-    <row r="241" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="241" spans="52:74">
       <c r="AZ241" s="25"/>
       <c r="BA241" s="25"/>
       <c r="BB241" s="25"/>
@@ -9674,7 +10122,7 @@
       <c r="BU241" s="25"/>
       <c r="BV241" s="25"/>
     </row>
-    <row r="242" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="242" spans="52:74">
       <c r="AZ242" s="25"/>
       <c r="BA242" s="25"/>
       <c r="BB242" s="25"/>
@@ -9699,7 +10147,7 @@
       <c r="BU242" s="25"/>
       <c r="BV242" s="25"/>
     </row>
-    <row r="243" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="243" spans="52:74">
       <c r="AZ243" s="25"/>
       <c r="BA243" s="25"/>
       <c r="BB243" s="25"/>
@@ -9724,7 +10172,7 @@
       <c r="BU243" s="25"/>
       <c r="BV243" s="25"/>
     </row>
-    <row r="244" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="244" spans="52:74">
       <c r="AZ244" s="25"/>
       <c r="BA244" s="25"/>
       <c r="BB244" s="25"/>
@@ -9749,7 +10197,7 @@
       <c r="BU244" s="25"/>
       <c r="BV244" s="25"/>
     </row>
-    <row r="245" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="245" spans="52:74">
       <c r="AZ245" s="25"/>
       <c r="BA245" s="25"/>
       <c r="BB245" s="25"/>
@@ -9774,7 +10222,7 @@
       <c r="BU245" s="25"/>
       <c r="BV245" s="25"/>
     </row>
-    <row r="246" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="246" spans="52:74">
       <c r="AZ246" s="25"/>
       <c r="BA246" s="25"/>
       <c r="BB246" s="25"/>
@@ -9799,7 +10247,7 @@
       <c r="BU246" s="25"/>
       <c r="BV246" s="25"/>
     </row>
-    <row r="247" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="247" spans="52:74">
       <c r="AZ247" s="25"/>
       <c r="BA247" s="25"/>
       <c r="BB247" s="25"/>
@@ -9824,7 +10272,7 @@
       <c r="BU247" s="25"/>
       <c r="BV247" s="25"/>
     </row>
-    <row r="248" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="248" spans="52:74">
       <c r="AZ248" s="25"/>
       <c r="BA248" s="25"/>
       <c r="BB248" s="25"/>
@@ -9849,7 +10297,7 @@
       <c r="BU248" s="25"/>
       <c r="BV248" s="25"/>
     </row>
-    <row r="249" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="249" spans="52:74">
       <c r="AZ249" s="25"/>
       <c r="BA249" s="25"/>
       <c r="BB249" s="25"/>
@@ -9874,7 +10322,7 @@
       <c r="BU249" s="25"/>
       <c r="BV249" s="25"/>
     </row>
-    <row r="250" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="250" spans="52:74">
       <c r="AZ250" s="25"/>
       <c r="BA250" s="25"/>
       <c r="BB250" s="25"/>
@@ -9899,7 +10347,7 @@
       <c r="BU250" s="25"/>
       <c r="BV250" s="25"/>
     </row>
-    <row r="251" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="251" spans="52:74">
       <c r="AZ251" s="25"/>
       <c r="BA251" s="25"/>
       <c r="BB251" s="25"/>
@@ -9924,7 +10372,7 @@
       <c r="BU251" s="25"/>
       <c r="BV251" s="25"/>
     </row>
-    <row r="252" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="252" spans="52:74">
       <c r="AZ252" s="25"/>
       <c r="BA252" s="25"/>
       <c r="BB252" s="25"/>
@@ -9949,7 +10397,7 @@
       <c r="BU252" s="25"/>
       <c r="BV252" s="25"/>
     </row>
-    <row r="253" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="253" spans="52:74">
       <c r="AZ253" s="25"/>
       <c r="BA253" s="25"/>
       <c r="BB253" s="25"/>
@@ -9974,7 +10422,7 @@
       <c r="BU253" s="25"/>
       <c r="BV253" s="25"/>
     </row>
-    <row r="254" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="254" spans="52:74">
       <c r="AZ254" s="25"/>
       <c r="BA254" s="25"/>
       <c r="BB254" s="25"/>
@@ -9999,7 +10447,7 @@
       <c r="BU254" s="25"/>
       <c r="BV254" s="25"/>
     </row>
-    <row r="255" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="255" spans="52:74">
       <c r="AZ255" s="25"/>
       <c r="BA255" s="25"/>
       <c r="BB255" s="25"/>
@@ -10024,7 +10472,7 @@
       <c r="BU255" s="25"/>
       <c r="BV255" s="25"/>
     </row>
-    <row r="256" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="256" spans="52:74">
       <c r="AZ256" s="25"/>
       <c r="BA256" s="25"/>
       <c r="BB256" s="25"/>
@@ -10049,7 +10497,7 @@
       <c r="BU256" s="25"/>
       <c r="BV256" s="25"/>
     </row>
-    <row r="257" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="257" spans="52:74">
       <c r="AZ257" s="25"/>
       <c r="BA257" s="25"/>
       <c r="BB257" s="25"/>
@@ -10074,7 +10522,7 @@
       <c r="BU257" s="25"/>
       <c r="BV257" s="25"/>
     </row>
-    <row r="258" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="258" spans="52:74">
       <c r="AZ258" s="25"/>
       <c r="BA258" s="25"/>
       <c r="BB258" s="25"/>
@@ -10099,7 +10547,7 @@
       <c r="BU258" s="25"/>
       <c r="BV258" s="25"/>
     </row>
-    <row r="259" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="259" spans="52:74">
       <c r="AZ259" s="25"/>
       <c r="BA259" s="25"/>
       <c r="BB259" s="25"/>
@@ -10124,7 +10572,7 @@
       <c r="BU259" s="25"/>
       <c r="BV259" s="25"/>
     </row>
-    <row r="260" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="260" spans="52:74">
       <c r="AZ260" s="25"/>
       <c r="BA260" s="25"/>
       <c r="BB260" s="25"/>
@@ -10149,7 +10597,7 @@
       <c r="BU260" s="25"/>
       <c r="BV260" s="25"/>
     </row>
-    <row r="261" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="261" spans="52:74">
       <c r="AZ261" s="25"/>
       <c r="BA261" s="25"/>
       <c r="BB261" s="25"/>
@@ -10174,7 +10622,7 @@
       <c r="BU261" s="25"/>
       <c r="BV261" s="25"/>
     </row>
-    <row r="262" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="262" spans="52:74">
       <c r="AZ262" s="25"/>
       <c r="BA262" s="25"/>
       <c r="BB262" s="25"/>
@@ -10199,7 +10647,7 @@
       <c r="BU262" s="25"/>
       <c r="BV262" s="25"/>
     </row>
-    <row r="263" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="263" spans="52:74">
       <c r="AZ263" s="25"/>
       <c r="BA263" s="25"/>
       <c r="BB263" s="25"/>
@@ -10224,7 +10672,7 @@
       <c r="BU263" s="25"/>
       <c r="BV263" s="25"/>
     </row>
-    <row r="264" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="264" spans="52:74">
       <c r="AZ264" s="25"/>
       <c r="BA264" s="25"/>
       <c r="BB264" s="25"/>
@@ -10249,7 +10697,7 @@
       <c r="BU264" s="25"/>
       <c r="BV264" s="25"/>
     </row>
-    <row r="265" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="265" spans="52:74">
       <c r="AZ265" s="25"/>
       <c r="BA265" s="25"/>
       <c r="BB265" s="25"/>
@@ -10274,7 +10722,7 @@
       <c r="BU265" s="25"/>
       <c r="BV265" s="25"/>
     </row>
-    <row r="266" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="266" spans="52:74">
       <c r="AZ266" s="25"/>
       <c r="BA266" s="25"/>
       <c r="BB266" s="25"/>
@@ -10299,7 +10747,7 @@
       <c r="BU266" s="25"/>
       <c r="BV266" s="25"/>
     </row>
-    <row r="267" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="267" spans="52:74">
       <c r="AZ267" s="25"/>
       <c r="BA267" s="25"/>
       <c r="BB267" s="25"/>
@@ -10324,7 +10772,7 @@
       <c r="BU267" s="25"/>
       <c r="BV267" s="25"/>
     </row>
-    <row r="268" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="268" spans="52:74">
       <c r="AZ268" s="25"/>
       <c r="BA268" s="25"/>
       <c r="BB268" s="25"/>
@@ -10349,7 +10797,7 @@
       <c r="BU268" s="25"/>
       <c r="BV268" s="25"/>
     </row>
-    <row r="269" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="269" spans="52:74">
       <c r="AZ269" s="25"/>
       <c r="BA269" s="25"/>
       <c r="BB269" s="25"/>
@@ -10374,7 +10822,7 @@
       <c r="BU269" s="25"/>
       <c r="BV269" s="25"/>
     </row>
-    <row r="270" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="270" spans="52:74">
       <c r="AZ270" s="25"/>
       <c r="BA270" s="25"/>
       <c r="BB270" s="25"/>
@@ -10399,7 +10847,7 @@
       <c r="BU270" s="25"/>
       <c r="BV270" s="25"/>
     </row>
-    <row r="271" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="271" spans="52:74">
       <c r="AZ271" s="25"/>
       <c r="BA271" s="25"/>
       <c r="BB271" s="25"/>
@@ -10424,7 +10872,7 @@
       <c r="BU271" s="25"/>
       <c r="BV271" s="25"/>
     </row>
-    <row r="272" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="272" spans="52:74">
       <c r="AZ272" s="25"/>
       <c r="BA272" s="25"/>
       <c r="BB272" s="25"/>
@@ -10449,7 +10897,7 @@
       <c r="BU272" s="25"/>
       <c r="BV272" s="25"/>
     </row>
-    <row r="273" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="273" spans="52:74">
       <c r="AZ273" s="25"/>
       <c r="BA273" s="25"/>
       <c r="BB273" s="25"/>
@@ -10474,7 +10922,7 @@
       <c r="BU273" s="25"/>
       <c r="BV273" s="25"/>
     </row>
-    <row r="274" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="274" spans="52:74">
       <c r="AZ274" s="25"/>
       <c r="BA274" s="25"/>
       <c r="BB274" s="25"/>
@@ -10499,7 +10947,7 @@
       <c r="BU274" s="25"/>
       <c r="BV274" s="25"/>
     </row>
-    <row r="275" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="275" spans="52:74">
       <c r="AZ275" s="25"/>
       <c r="BA275" s="25"/>
       <c r="BB275" s="25"/>
@@ -10524,7 +10972,7 @@
       <c r="BU275" s="25"/>
       <c r="BV275" s="25"/>
     </row>
-    <row r="276" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="276" spans="52:74">
       <c r="AZ276" s="25"/>
       <c r="BA276" s="25"/>
       <c r="BB276" s="25"/>
@@ -10549,7 +10997,7 @@
       <c r="BU276" s="25"/>
       <c r="BV276" s="25"/>
     </row>
-    <row r="277" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="277" spans="52:74">
       <c r="AZ277" s="25"/>
       <c r="BA277" s="25"/>
       <c r="BB277" s="25"/>
@@ -10574,7 +11022,7 @@
       <c r="BU277" s="25"/>
       <c r="BV277" s="25"/>
     </row>
-    <row r="278" spans="52:74" x14ac:dyDescent="0.15">
+    <row r="278" spans="52:74">
       <c r="AZ278" s="25"/>
       <c r="BA278" s="25"/>
       <c r="BB278" s="25"/>
@@ -10599,32 +11047,61 @@
       <c r="BU278" s="25"/>
       <c r="BV278" s="25"/>
     </row>
-    <row r="781" spans="12:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="782" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="781" spans="12:12" ht="13.8" thickBot="1"/>
+    <row r="782" spans="12:12">
       <c r="L782" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A69:B69"/>
+  <mergeCells count="83">
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
     <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="BL21:CP21"/>
+    <mergeCell ref="DT21:EC21"/>
+    <mergeCell ref="AX12:AX20"/>
+    <mergeCell ref="CU12:CU20"/>
+    <mergeCell ref="AY12:AY20"/>
+    <mergeCell ref="BW12:BW20"/>
+    <mergeCell ref="DW9:DW20"/>
+    <mergeCell ref="CD11:CD20"/>
+    <mergeCell ref="CE11:CE20"/>
+    <mergeCell ref="CN10:CN20"/>
+    <mergeCell ref="DG10:DG20"/>
+    <mergeCell ref="DP9:DP20"/>
+    <mergeCell ref="CG1:CG20"/>
+    <mergeCell ref="CQ21:DR21"/>
+    <mergeCell ref="AG21:BK21"/>
+    <mergeCell ref="AC11:AC20"/>
+    <mergeCell ref="AJ10:AJ20"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="I15:I20"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="AF1:AF20"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A24:B24"/>
@@ -10641,43 +11118,24 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="D12:L12"/>
-    <mergeCell ref="AG21:BK21"/>
-    <mergeCell ref="AC11:AC20"/>
-    <mergeCell ref="AJ10:AJ20"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="I15:I20"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="AF1:AF20"/>
-    <mergeCell ref="BL21:CP21"/>
-    <mergeCell ref="DT21:EC21"/>
-    <mergeCell ref="AX12:AX20"/>
-    <mergeCell ref="CU12:CU20"/>
-    <mergeCell ref="AY12:AY20"/>
-    <mergeCell ref="BW12:BW20"/>
-    <mergeCell ref="DW9:DW20"/>
-    <mergeCell ref="CD11:CD20"/>
-    <mergeCell ref="CE11:CE20"/>
-    <mergeCell ref="CN10:CN20"/>
-    <mergeCell ref="DG10:DG20"/>
-    <mergeCell ref="DP9:DP20"/>
-    <mergeCell ref="CG1:CG20"/>
-    <mergeCell ref="CQ21:DR21"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A64:B64"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B20">
@@ -10729,7 +11187,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10741,13 +11199,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="26.125" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -10758,7 +11216,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="B3" t="s">
         <v>19</v>
       </c>
@@ -10766,7 +11224,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="B4" t="s">
         <v>20</v>
       </c>
@@ -10774,7 +11232,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
         <v>21</v>
       </c>
@@ -10782,7 +11240,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="C6" t="s">
         <v>28</v>
       </c>
@@ -10790,16 +11248,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" s="42" customFormat="1" ht="13.5"/>
+    <row r="8" spans="1:4">
       <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="B11" t="s">
         <v>34</v>
       </c>
@@ -10807,7 +11265,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="B12" t="s">
         <v>35</v>
       </c>
@@ -10815,7 +11273,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -10823,7 +11281,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="B14" t="s">
         <v>23</v>
       </c>
@@ -10831,7 +11289,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="B15" t="s">
         <v>24</v>
       </c>
@@ -10839,7 +11297,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -10847,7 +11305,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="B17" t="s">
         <v>26</v>
       </c>
@@ -10855,7 +11313,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="B18" t="s">
         <v>27</v>
       </c>
@@ -10863,7 +11321,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -10874,7 +11332,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="B22" t="s">
         <v>48</v>
       </c>
@@ -10882,7 +11340,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="B23" t="s">
         <v>49</v>
       </c>
